--- a/Entregables/UdeBarcelona/umbral_varianza.xlsx
+++ b/Entregables/UdeBarcelona/umbral_varianza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E519"/>
+  <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ffq_vit_b9</t>
+          <t>ffq_helados</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ffq_quesos</t>
+          <t>ffq_picante</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ffq_p_fritascom</t>
+          <t>monocitos_porcentaje</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>linfocitos_porcentaje</t>
+          <t>ffq_vit_b3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>amilasa</t>
+          <t>talla</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ffq_pollopiel</t>
+          <t>edad</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ade</t>
+          <t>PAS_der</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ffq_p_blanco</t>
+          <t>ipaq_min_mod</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ffq_chocolate_negro</t>
+          <t>ffq_cacao</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dif_crono_pheno</t>
+          <t>eosinofilos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -693,7 +693,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>wcst_pp_t</t>
+          <t>bilirrubina_total</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ffq_tomat</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -739,7 +739,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ffq_melocoton</t>
+          <t>cv_physical</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ferritina</t>
+          <t>ffq_pistacho</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>apolipoproteina_b</t>
+          <t>ffq_higad</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vsg</t>
+          <t>ffq_p_fritascas</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ffq_panblanco</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -854,7 +854,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ffq_edulcorantes</t>
+          <t>hierro</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ffq_g_choco</t>
+          <t>ffq_surimi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -900,7 +900,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ffq_fibra</t>
+          <t>alfacaroteno</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -923,7 +923,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>alfacaroteno</t>
+          <t>creatinina</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -946,7 +946,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>isi_total</t>
+          <t>ad_dietamed</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wcst_te_t</t>
+          <t>cintura_cadera</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ffq_mermeladas</t>
+          <t>ffq_sandi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tom_crudo</t>
+          <t>ffq_croquetas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>monocitos</t>
+          <t>ffq_crustaceos</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,7 +1061,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tom_cocido</t>
+          <t>ffq_jverde</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1084,7 +1084,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ffq_mostaz</t>
+          <t>ffq_g_choco</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1107,7 +1107,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ffq_sandi</t>
+          <t>ffq_tropicales</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,7 +1130,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ffq_margarinas</t>
+          <t>ffq_muesli</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1153,7 +1153,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>wcst_te_pd</t>
+          <t>ffq_ac_oliva</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>wcst_pp_pd</t>
+          <t>tom_dias</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ffq_cafes</t>
+          <t>ph_orina</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ffq_agm</t>
+          <t>densidad_orina</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>trigliceridos</t>
+          <t>ffq_leche_ent</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ffq_ac_oliva</t>
+          <t>ffq_fe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1291,7 +1291,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>linfocitos</t>
+          <t>ffq_lechug</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>eosinofilos</t>
+          <t>transferrina</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1337,7 +1337,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bun</t>
+          <t>ffq_mg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ffq_crustaceos</t>
+          <t>selenio</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>hematies</t>
+          <t>ffq_fresa</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1406,7 +1406,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>densidad_orina</t>
+          <t>num_despertares</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1429,7 +1429,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ffq_v_blanco</t>
+          <t>ffq_requeson</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1452,7 +1452,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ffq_chocolates</t>
+          <t>ffq_ajos</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1475,7 +1475,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ffq_otros_lacteos</t>
+          <t>ffq_tomat</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -1498,7 +1498,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>magnesio</t>
+          <t>ffq_pollopiel</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -1521,7 +1521,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ffq_almejas</t>
+          <t>ffq_nata_crema</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -1544,7 +1544,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ffq_nuez</t>
+          <t>horas_sueño_fs</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>fn_score</t>
+          <t>d2_vt_pd</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ffq_seta</t>
+          <t>ffq_ac_girasol</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ffq_tomatefri</t>
+          <t>ffq_snack</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ffq_otrasver</t>
+          <t>inr</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1659,7 +1659,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ffq_vit_b12</t>
+          <t>ffq_pastaINT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -1682,7 +1682,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ffq_natilla</t>
+          <t>horas_cama</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -1705,7 +1705,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mg_dia_licopeno</t>
+          <t>ffq_calamar</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>d2_con2_pd</t>
+          <t>vsg</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -1774,7 +1774,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>basofilos_porcentaje</t>
+          <t>alfa2_globulina</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ffq_g_maria</t>
+          <t>horas_sueño</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1820,7 +1820,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>tiempo_tromboplastina</t>
+          <t>saturacion_transferrina</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PAS_izq</t>
+          <t>homocisteina_basal</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -1866,7 +1866,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>d2_con1_pd</t>
+          <t>ffq_acelgas</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1889,7 +1889,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ffq_yogur_des</t>
+          <t>ffq_q_fresco</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -1912,7 +1912,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ffq_protanim</t>
+          <t>hematocrito</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -1935,7 +1935,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>calcio</t>
+          <t>cloro</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1958,7 +1958,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>tiempo_protrombina_porcentaje</t>
+          <t>monocitos</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1981,7 +1981,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>eficiencia_sueño</t>
+          <t>af_ligera</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -2004,7 +2004,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ffq_bizcocho</t>
+          <t>ffq_p_natural</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2027,7 +2027,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>transferrina</t>
+          <t>d2_vt_pt</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2050,7 +2050,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t4</t>
+          <t>ffq_arrozINT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ffq_g_integral</t>
+          <t>min_cama</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>tsh</t>
+          <t>hcm</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2119,7 +2119,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>leucocitos</t>
+          <t>ffq_ags</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -2142,7 +2142,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ffq_pollonopiel</t>
+          <t>Palabras_moca</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2165,7 +2165,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>capacidad_ligar_hierro</t>
+          <t>ffq_prot</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>luteina</t>
+          <t>imc</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>hierro</t>
+          <t>ffq_huevos</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ffq_lechug</t>
+          <t>ffq_alubiaseca</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2257,7 +2257,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ffq_z_botella</t>
+          <t>af_ligera_porcentaje</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -2280,7 +2280,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>cv_physical</t>
+          <t>PAD_izq</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2303,7 +2303,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ffq_pizzas</t>
+          <t>hematies</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -2326,7 +2326,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ldh</t>
+          <t>ffq_esparragos</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ac_urico</t>
+          <t>ffq_vit_e</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ffq_j_cocido</t>
+          <t>ipaq_mets</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2395,7 +2395,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ffq_hamburguesa</t>
+          <t>d2_vt_pc</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ffq_ajos</t>
+          <t>indice_albumina_creatinina</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -2441,7 +2441,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ffq_tortitas</t>
+          <t>cv_p18</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ind_frag</t>
+          <t>cv_physical_100</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -2487,7 +2487,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ffq_licores</t>
+          <t>ffq_pimientos</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
@@ -2510,7 +2510,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>grasa_vic</t>
+          <t>cintura_media</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2533,7 +2533,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ffq_cerealdes</t>
+          <t>apolipoproteina_a1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -2556,7 +2556,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>phenoage</t>
+          <t>insulina</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2579,7 +2579,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zinc</t>
+          <t>d2_con4_pd</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2602,7 +2602,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ffq_sal</t>
+          <t>ffq_refrescsin</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -2625,7 +2625,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>tom_no</t>
+          <t>wcst_ife_pd</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2648,7 +2648,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ac_folico_serico</t>
+          <t>ffq_cervezas</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2671,7 +2671,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>beta_globulina</t>
+          <t>ac_folico_serico</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2694,7 +2694,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ffq_arrozblan</t>
+          <t>ffq_otrasver</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2717,7 +2717,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ffq_quesito</t>
+          <t>ffq_almejas</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ffq_azucares</t>
+          <t>calcio</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -2763,7 +2763,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ffq_tropicales</t>
+          <t>cv_enviroment_100</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2786,7 +2786,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>af_ligera</t>
+          <t>ffq_agua</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E103" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>neutrofilos</t>
+          <t>ffq_paninteg</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E104" t="b">
         <v>1</v>
@@ -2832,7 +2832,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>lipasa</t>
+          <t>gamma_globulina</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -2855,7 +2855,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>monocitos_porcentaje</t>
+          <t>ind_frag_sueño</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>wcst_ife_pd</t>
+          <t>albumina</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2901,7 +2901,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>hemoglobina_glicada</t>
+          <t>ffq_alcohol</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2924,7 +2924,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ffq_zanahor</t>
+          <t>mortality_risk</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2947,7 +2947,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ffq_pates</t>
+          <t>dif_crono_pheno</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E110" t="b">
         <v>1</v>
@@ -2970,7 +2970,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ffq_lenteja</t>
+          <t>asat</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -2993,7 +2993,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>cv_p4</t>
+          <t>ffq_vit_a</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
@@ -3016,7 +3016,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>d2_con4_pd</t>
+          <t>tiempo_protrombina_porcentaje</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3039,7 +3039,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ffq_k</t>
+          <t>ffq_carotenoides</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3062,7 +3062,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ffq_kiwis</t>
+          <t>ffq_gazpach</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
@@ -3085,7 +3085,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>indice_albumina_creatinina</t>
+          <t>d2_con3_pd</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ffq_ca</t>
+          <t>phenoage</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3131,7 +3131,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ffq_p_natural</t>
+          <t>ffq_churro</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3154,7 +3154,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ffq_avellanas</t>
+          <t>ffq_azuc</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E119" t="b">
         <v>1</v>
@@ -3177,7 +3177,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>d2_e_pd</t>
+          <t>ffq_espagueti</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -3200,7 +3200,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>cintura_media</t>
+          <t>ffq_pasas</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3223,7 +3223,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ffq_leche_semi</t>
+          <t>ffq_edulcorantes</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3246,7 +3246,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>licopeno</t>
+          <t>cv_enviroment</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3269,7 +3269,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ffq_hc</t>
+          <t>pasos_dia</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ffq_aceitunas</t>
+          <t>col_ldl</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3315,7 +3315,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>tiempo_sedentario</t>
+          <t>glucosa</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E126" t="b">
         <v>1</v>
@@ -3338,7 +3338,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ipaq_min_mod</t>
+          <t>ffq_whisky</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E127" t="b">
         <v>1</v>
@@ -3361,7 +3361,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ffq_alubiaseca</t>
+          <t>delta_fn_nombre</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3384,7 +3384,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ffq_guisantes</t>
+          <t>hads_score</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>horas_sueño</t>
+          <t>ffq_cerealdes</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3430,7 +3430,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ph_orina</t>
+          <t>depresion</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3453,7 +3453,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>wcst_ife_t</t>
+          <t>fn_score</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PAD_izq</t>
+          <t>ffq_mantequillas</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3499,7 +3499,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>d2_vt_pt</t>
+          <t>ffq_vit_b1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3522,7 +3522,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ffq_sopasobre</t>
+          <t>ffq_cafedesc</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3545,7 +3545,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ffq_energiatot</t>
+          <t>alfa1_globulina</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>zeaxantina</t>
+          <t>af_mv_procentaje</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E137" t="b">
         <v>1</v>
@@ -3591,7 +3591,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>cv_psychological_100</t>
+          <t>ffq_mayones</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3614,7 +3614,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>cv_p18</t>
+          <t>ffq_coles</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3637,7 +3637,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ffq_prot</t>
+          <t>ffq_leche_desn</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3660,7 +3660,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>alfa2_globulina</t>
+          <t>ffq_quinoa</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3683,7 +3683,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ffq_picante</t>
+          <t>ffq_p_aceite</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3706,7 +3706,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ffq_pastel</t>
+          <t>mg_dia_licopeno</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E143" t="b">
         <v>1</v>
@@ -3729,7 +3729,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>edad</t>
+          <t>ffq_g_integral</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3743,7 +3743,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E144" t="b">
         <v>1</v>
@@ -3752,7 +3752,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ffq_pistacho</t>
+          <t>ffq_sofrito</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E145" t="b">
         <v>1</v>
@@ -3775,7 +3775,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ffq_cebollas</t>
+          <t>ffq_cerveza_sin</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>delta_bdnf</t>
+          <t>ffq_bizcocho</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3821,7 +3821,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>cv_p22</t>
+          <t>delta_d2_con_pd</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ffq_paninteg</t>
+          <t>col_total</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3867,7 +3867,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ffq_carnes_procesadas</t>
+          <t>vcm</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E150" t="b">
         <v>1</v>
@@ -3890,7 +3890,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ffq_muesli</t>
+          <t>albumina_orina_num</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3913,7 +3913,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>plaquetas</t>
+          <t>ffq_pina</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E152" t="b">
         <v>1</v>
@@ -3936,7 +3936,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>tiempo_protrombina</t>
+          <t>ind_mov</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E153" t="b">
         <v>1</v>
@@ -3959,7 +3959,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>horas_sueño_fs</t>
+          <t>d2_e_pd</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3982,7 +3982,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ffq_p_aceite</t>
+          <t>ffq_platanos</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4005,7 +4005,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ffq_z_natural</t>
+          <t>ffq_semillas</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E156" t="b">
         <v>1</v>
@@ -4028,7 +4028,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ffq_naranjas</t>
+          <t>ffq_refrescos</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E157" t="b">
         <v>1</v>
@@ -4051,7 +4051,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ffq_ac_mezcla</t>
+          <t>cv_p9</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4074,7 +4074,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>mortality_risk</t>
+          <t>ffq_g_sinazucar</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4097,7 +4097,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>albumina_orina_num</t>
+          <t>ffq_na</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4111,7 +4111,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E160" t="b">
         <v>1</v>
@@ -4120,7 +4120,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ffq_batidos</t>
+          <t>ffq_azucares</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4143,7 +4143,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ffq_croquetas</t>
+          <t>ffq_carnes_procesadas</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4166,7 +4166,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>pcr</t>
+          <t>ffq_vit_c</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4189,7 +4189,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ffq_colesterol</t>
+          <t>cortisol</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4212,7 +4212,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ffq_quinoa</t>
+          <t>ffq_p_azul</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4235,7 +4235,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ffq_p_cocidas</t>
+          <t>prealbumina</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E166" t="b">
         <v>1</v>
@@ -4258,7 +4258,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ffq_c_ternera</t>
+          <t>ffq_pastel</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E167" t="b">
         <v>1</v>
@@ -4281,7 +4281,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>g_dia_tom</t>
+          <t>ffq_pates</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E168" t="b">
         <v>1</v>
@@ -4304,7 +4304,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ffq_semillas</t>
+          <t>wcst_pp_pd</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E169" t="b">
         <v>1</v>
@@ -4327,7 +4327,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>glucosa</t>
+          <t>fn_letra</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E170" t="b">
         <v>1</v>
@@ -4350,7 +4350,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>delta_fn_score</t>
+          <t>ffq_bacalao</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4373,7 +4373,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Palabras_moca</t>
+          <t>trigliceridos</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4396,7 +4396,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>tiempo_tromboplastina_rati</t>
+          <t>basofilos_porcentaje</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4419,7 +4419,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>proteinas_totales</t>
+          <t>basofilos</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E174" t="b">
         <v>1</v>
@@ -4442,7 +4442,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ffq_c_cerdonomagra</t>
+          <t>ffq_grasa</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4465,7 +4465,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>alfa1_globulina</t>
+          <t>potasio</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ffq_azuc</t>
+          <t>ffq_mostaz</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4511,7 +4511,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ffq_infusiones</t>
+          <t>luteina</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4534,7 +4534,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ffq_gazpach</t>
+          <t>ffq_retinoides</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E179" t="b">
         <v>1</v>
@@ -4557,7 +4557,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>cobre</t>
+          <t>ffq_protanim</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4580,7 +4580,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ffq_leche_ent</t>
+          <t>eficiencia_sueño</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
@@ -4603,7 +4603,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>cadera_media</t>
+          <t>ffq_c_cerdomagra</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E182" t="b">
         <v>1</v>
@@ -4626,7 +4626,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>hemoglobina</t>
+          <t>ffq_p</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E183" t="b">
         <v>1</v>
@@ -4649,7 +4649,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ggt</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4672,7 +4672,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ffq_nata_crema</t>
+          <t>ffq_arrozblan</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4695,7 +4695,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ffq_c_cordero</t>
+          <t>ffq_uva</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4718,7 +4718,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PAS_der</t>
+          <t>ffq_agp</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4741,7 +4741,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>creatinina</t>
+          <t>homa_ir</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4764,7 +4764,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>licopeno_trans</t>
+          <t>ffq_aceitunas</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4787,7 +4787,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ind_mov</t>
+          <t>ffq_otros_lacteos</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4810,7 +4810,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>cv_social_relationships</t>
+          <t>ffq_cavas</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E191" t="b">
         <v>1</v>
@@ -4833,7 +4833,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>cintura_cadera</t>
+          <t>proteinas_totales</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4856,7 +4856,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>cortisol</t>
+          <t>ffq_pizzas</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E193" t="b">
         <v>1</v>
@@ -4879,7 +4879,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ffq_ac_olivavir</t>
+          <t>ffq_batidos</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4902,7 +4902,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t3</t>
+          <t>albumina_porcentaje</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4925,7 +4925,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>bilirrubina_total</t>
+          <t>ffq_licores</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E196" t="b">
         <v>1</v>
@@ -4948,7 +4948,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>d2_con3_pd</t>
+          <t>ffq_leche_semi</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ffq_mantequillas</t>
+          <t>ffq_zanahor</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4994,7 +4994,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>hads_score</t>
+          <t>d2_con_pt</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E199" t="b">
         <v>1</v>
@@ -5017,7 +5017,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>d2_con_pd</t>
+          <t>duracion_despertares</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5040,7 +5040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ffq_grasa</t>
+          <t>delta_d2_vt_pd</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5063,7 +5063,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>hcm</t>
+          <t>ffq_p_cocidas</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E202" t="b">
         <v>1</v>
@@ -5086,7 +5086,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>tiempo_protrombina_rati</t>
+          <t>ffq_hamburguesa</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5109,7 +5109,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ffq_fe</t>
+          <t>ffq_avellanas</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E204" t="b">
         <v>1</v>
@@ -5132,7 +5132,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>hematocrito</t>
+          <t>tiempo_tromboplastina</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
@@ -5155,7 +5155,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>basofilos</t>
+          <t>ffq_chocolate_negro</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
@@ -5178,7 +5178,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>musculo</t>
+          <t>ipaq_min_int</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5201,7 +5201,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ffq_pimientos</t>
+          <t>ffq_quesito</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E208" t="b">
         <v>1</v>
@@ -5224,7 +5224,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ffq_helados</t>
+          <t>tmb</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E209" t="b">
         <v>1</v>
@@ -5247,7 +5247,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>eosinofilos_porcentaje</t>
+          <t>d2_con2_pd</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5261,7 +5261,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E210" t="b">
         <v>1</v>
@@ -5270,7 +5270,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>cloro</t>
+          <t>pgh_min_dormirse</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5293,7 +5293,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ffq_bacon</t>
+          <t>lipasa</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E212" t="b">
         <v>1</v>
@@ -5316,7 +5316,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ffq_pastaINT</t>
+          <t>delta_bdnf</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E213" t="b">
         <v>1</v>
@@ -5339,7 +5339,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ffq_zn</t>
+          <t>af_mv</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5362,7 +5362,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>num_despertares</t>
+          <t>d2_e_pt</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E215" t="b">
         <v>1</v>
@@ -5385,7 +5385,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>pgh_min_dormirse</t>
+          <t>ffq_melocoton</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5408,7 +5408,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>delta_fn_nombre</t>
+          <t>ffq_agm</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5431,7 +5431,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ffq_perejil</t>
+          <t>licopeno_5cis</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5454,7 +5454,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ffq_whisky</t>
+          <t>ffq_otros_embutidos</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5477,7 +5477,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>grasa</t>
+          <t>ffq_colesterol</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5500,7 +5500,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ffq_refrescos</t>
+          <t>wcst_ep_t</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E221" t="b">
         <v>1</v>
@@ -5523,7 +5523,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>selenio</t>
+          <t>ffq_mermeladas</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5546,7 +5546,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ffq_v_tintoañej</t>
+          <t>wcst_te_t</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5569,7 +5569,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ffq_surimi</t>
+          <t>ffq_cafes</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5592,7 +5592,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>horas_cama</t>
+          <t>indice_albumina_globulinas</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E225" t="b">
         <v>1</v>
@@ -5615,7 +5615,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>insulina</t>
+          <t>grasa_vic</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ffq_manzanas</t>
+          <t>ffq_v_tintoañej</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5661,7 +5661,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ipaq_mets</t>
+          <t>neutrofilos_porcentaje</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5684,7 +5684,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ffq_cerezas</t>
+          <t>bdnf</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5707,7 +5707,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PAD_der</t>
+          <t>ffq_perejil</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5730,7 +5730,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ffq_jverde</t>
+          <t>t3</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5744,7 +5744,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E231" t="b">
         <v>1</v>
@@ -5753,7 +5753,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ipaq_horas_sent</t>
+          <t>t4</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5776,7 +5776,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ffq_requeson</t>
+          <t>ac_folico_intraeritrocitos</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="E233" t="b">
         <v>1</v>
@@ -5799,7 +5799,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ffq_calamar</t>
+          <t>d2_e_pc</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5822,7 +5822,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>pgh_total</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5845,7 +5845,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ffq_espagueti</t>
+          <t>wcst_pp_t</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E236" t="b">
         <v>1</v>
@@ -5868,7 +5868,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>cv_enviroment_100</t>
+          <t>linfocitos_porcentaje</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5891,7 +5891,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>alat</t>
+          <t>ffq_seta</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5905,7 +5905,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E238" t="b">
         <v>1</v>
@@ -5914,7 +5914,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ffq_na</t>
+          <t>PAD_der</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E239" t="b">
         <v>1</v>
@@ -5937,7 +5937,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>licopeno_5cis</t>
+          <t>ffq_te</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5960,7 +5960,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>tom_sofrito</t>
+          <t>ffq_j_serrano</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5983,7 +5983,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>delta_d2_con_pd</t>
+          <t>zeaxantina</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E242" t="b">
         <v>1</v>
@@ -6006,7 +6006,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>filtrado_glomerular</t>
+          <t>ffq_c_ternera</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6029,7 +6029,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ffq_snack</t>
+          <t>ffq_manzanas</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ffq_cavas</t>
+          <t>ffq_p_blanco</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E245" t="b">
         <v>1</v>
@@ -6075,7 +6075,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>col_ldl</t>
+          <t>beta_globulina</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -6098,7 +6098,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ffq_pasas</t>
+          <t>cv_psychological</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E247" t="b">
         <v>1</v>
@@ -6121,7 +6121,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>d2_e_pt</t>
+          <t>ffq_aguacate</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E248" t="b">
         <v>1</v>
@@ -6144,7 +6144,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>bdnf</t>
+          <t>cv_p4</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -6158,7 +6158,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E249" t="b">
         <v>1</v>
@@ -6167,7 +6167,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>d2_con_pt</t>
+          <t>fosforo</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -6181,7 +6181,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E250" t="b">
         <v>1</v>
@@ -6190,7 +6190,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>wcst_cc_t</t>
+          <t>ffq_z_natural</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -6213,7 +6213,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>cv_social_relationships_100</t>
+          <t>FC_media</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -6236,7 +6236,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ffq_refrescsin</t>
+          <t>licopeno_trans</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -6259,7 +6259,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>asat</t>
+          <t>ffq_bacon</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E254" t="b">
         <v>1</v>
@@ -6282,7 +6282,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>chcm</t>
+          <t>ffq_c_conejo</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6305,7 +6305,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>talla</t>
+          <t>cv_p22</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6328,7 +6328,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ffq_vit_e</t>
+          <t>ffq_ca</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6351,7 +6351,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>tom_dias</t>
+          <t>ansiedad</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E258" t="b">
         <v>1</v>
@@ -6374,7 +6374,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ffq_mg</t>
+          <t>plaquetas</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6397,7 +6397,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>inr</t>
+          <t>cobre</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>d2_vt_pd</t>
+          <t>betacriptoxantina</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6443,7 +6443,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>vit_d3</t>
+          <t>eosinofilos_porcentaje</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6466,7 +6466,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ffq_fresa</t>
+          <t>ffq_vit_b6</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6489,7 +6489,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ffq_leche_desn</t>
+          <t>ffq_zn</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6512,7 +6512,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ffq_g_sinazucar</t>
+          <t>ffq_vit_d</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6535,7 +6535,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ffq_mayones</t>
+          <t>wcst_te_pd</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ffq_vit_d</t>
+          <t>ffq_kiwis</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6581,7 +6581,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ffq_croissant</t>
+          <t>ffq_calabacin</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6604,7 +6604,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>delta_d2_vt_pd</t>
+          <t>tom_cocido</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E269" t="b">
         <v>1</v>
@@ -6627,7 +6627,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ad_dietamed</t>
+          <t>ferritina</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6650,7 +6650,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>vit_b12</t>
+          <t>ipaq_horas_sent</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6673,7 +6673,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>imc</t>
+          <t>ffq_sopasobre</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6696,7 +6696,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ffq_otros_embutidos</t>
+          <t>col_hdl</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6719,7 +6719,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ac_folico_intraeritrocitos</t>
+          <t>tiempo_sedentario</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6733,7 +6733,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E274" t="b">
         <v>1</v>
@@ -6742,7 +6742,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ffq_vit_b1</t>
+          <t>min_dormir</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6765,7 +6765,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>duracion_despertares</t>
+          <t>ffq_j_cocido</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6788,7 +6788,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>d2_con_pc</t>
+          <t>fosfatasa_alcalina</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6811,7 +6811,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ffq_calabacin</t>
+          <t>cv_psychological_100</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6834,7 +6834,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>pasos_dia</t>
+          <t>ffq_quesos</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6857,7 +6857,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ffq_protveg</t>
+          <t>ipaq_min_cam</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6880,7 +6880,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ffq_c_conejo</t>
+          <t>tom_no</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6903,7 +6903,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ffq_v_tintojov</t>
+          <t>ffq_sal</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E282" t="b">
         <v>1</v>
@@ -6926,7 +6926,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ffq_p_fritascas</t>
+          <t>ffq_lenteja</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6949,7 +6949,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>af_mv</t>
+          <t>ac_urico</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6972,7 +6972,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ffq_p</t>
+          <t>ffq_almendras</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E285" t="b">
         <v>1</v>
@@ -6995,7 +6995,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>apolipoproteina_a1</t>
+          <t>ffq_guisantes</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -7018,7 +7018,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ind_frag_sueño</t>
+          <t>waso</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -7041,7 +7041,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ffq_aguacate</t>
+          <t>d2_con_pc</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -7064,7 +7064,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>cv_psychological</t>
+          <t>zinc</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -7078,7 +7078,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E289" t="b">
         <v>1</v>
@@ -7087,7 +7087,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>delta_licopeno</t>
+          <t>ade</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -7110,7 +7110,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ffq_vit_b2</t>
+          <t>ffq_hc</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -7133,7 +7133,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ffq_q_fresco</t>
+          <t>ffq_g_maria</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E292" t="b">
         <v>1</v>
@@ -7156,7 +7156,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ffq_agua</t>
+          <t>apolipoproteina_b</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -7170,7 +7170,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E293" t="b">
         <v>1</v>
@@ -7179,7 +7179,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ffq_uva</t>
+          <t>tiempo_tromboplastina_rati</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -7202,7 +7202,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>min_cama</t>
+          <t>pgh_por_eficiencia</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -7225,7 +7225,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ffq_garbanzos</t>
+          <t>ffq_protveg</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -7248,7 +7248,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>pgh_total</t>
+          <t>ffq_croissant</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -7271,7 +7271,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ffq_higad</t>
+          <t>delta_licopeno</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E298" t="b">
         <v>1</v>
@@ -7294,7 +7294,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>fosforo</t>
+          <t>magnesio</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -7317,7 +7317,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ffq_sofrito</t>
+          <t>ffq_z_frutasnat</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7340,7 +7340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>pgh_h_dormir</t>
+          <t>ffq_natilla</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7363,7 +7363,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ffq_cafedesc</t>
+          <t>creatinina_orina</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7386,7 +7386,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ffq_cacao</t>
+          <t>fibrinogeno</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E303" t="b">
         <v>1</v>
@@ -7409,7 +7409,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ffq_mieles</t>
+          <t>ffq_tomatefri</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7432,7 +7432,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ipaq_min_cam</t>
+          <t>ffq_naranjas</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7455,7 +7455,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ansiedad</t>
+          <t>ggt</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7469,7 +7469,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E306" t="b">
         <v>1</v>
@@ -7478,7 +7478,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>gamma_globulina</t>
+          <t>musculo</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E307" t="b">
         <v>1</v>
@@ -7501,7 +7501,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ffq_almendras</t>
+          <t>ffq_p_fritascom</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7524,7 +7524,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>cv_enviroment</t>
+          <t>isi_total</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7547,7 +7547,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ffq_vit_c</t>
+          <t>amilasa</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7570,7 +7570,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>af_mv_procentaje</t>
+          <t>capacidad_ligar_hierro</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7593,7 +7593,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>d2_e_pc</t>
+          <t>ffq_fibra</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E312" t="b">
         <v>1</v>
@@ -7616,7 +7616,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>waso</t>
+          <t>ffq_chocolates</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7639,7 +7639,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ffq_arrozINT</t>
+          <t>ffq_z_botella</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E314" t="b">
         <v>1</v>
@@ -7662,7 +7662,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>homa_ir</t>
+          <t>ffq_ac_olivavir</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7685,7 +7685,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ffq_vit_b6</t>
+          <t>hemoglobina</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7708,7 +7708,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ffq_cervezas</t>
+          <t>ffq_vit_b12</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7731,7 +7731,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ffq_platanos</t>
+          <t>wcst_ife_t</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7754,7 +7754,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ffq_te</t>
+          <t>delta_fn_score</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7777,7 +7777,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>col_total</t>
+          <t>tom_sofrito</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7791,7 +7791,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E320" t="b">
         <v>1</v>
@@ -7800,7 +7800,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>potasio</t>
+          <t>ffq_energiatot</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7823,7 +7823,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ffq_bebida_energetica</t>
+          <t>g_dia_tom</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E322" t="b">
         <v>1</v>
@@ -7846,7 +7846,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>prealbumina</t>
+          <t>ffq_panblanco</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E323" t="b">
         <v>1</v>
@@ -7869,7 +7869,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ffq_ags</t>
+          <t>ffq_pollonopiel</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7883,7 +7883,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E324" t="b">
         <v>1</v>
@@ -7892,7 +7892,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>fn_letra</t>
+          <t>d2_con1_pd</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7915,7 +7915,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ffq_vit_a</t>
+          <t>neutrofilos</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E326" t="b">
         <v>1</v>
@@ -7938,7 +7938,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>albumina</t>
+          <t>tiempo_protrombina</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E327" t="b">
         <v>1</v>
@@ -7961,7 +7961,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ffq_cerveza_sin</t>
+          <t>hemoglobina_glicada</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7984,7 +7984,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>homocisteina_basal</t>
+          <t>bun</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -8007,7 +8007,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>min_dormir</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E330" t="b">
         <v>1</v>
@@ -8030,7 +8030,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ffq_bacalao</t>
+          <t>filtrado_glomerular</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -8053,7 +8053,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>betacaroteno</t>
+          <t>ffq_c_cordero</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -8076,7 +8076,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>depresion</t>
+          <t>ffq_v_tintojov</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -8099,7 +8099,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ffq_c_cerdomagra</t>
+          <t>ffq_v_blanco</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -8113,7 +8113,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E334" t="b">
         <v>1</v>
@@ -8122,7 +8122,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ffq_coles</t>
+          <t>licopeno</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -8145,7 +8145,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>cv_p9</t>
+          <t>ffq_nuez</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -8168,7 +8168,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ffq_carotenoides</t>
+          <t>cadera_media</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -8191,7 +8191,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ffq_bebidas_vegetales</t>
+          <t>ffq_garbanzos</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -8214,7 +8214,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>neutrofilos_porcentaje</t>
+          <t>leucocitos</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -8237,7 +8237,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ffq_huevos</t>
+          <t>pcr</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -8260,7 +8260,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ffq_alcohol</t>
+          <t>ffq_vit_b2</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -8283,7 +8283,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>col_hdl</t>
+          <t>wcst_cc_t</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -8306,7 +8306,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>creatinina_orina</t>
+          <t>ldh</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -8329,7 +8329,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ffq_agp</t>
+          <t>cv_social_relationships</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -8343,7 +8343,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E344" t="b">
         <v>1</v>
@@ -8352,7 +8352,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ffq_pina</t>
+          <t>ffq_mieles</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -8366,7 +8366,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E345" t="b">
         <v>1</v>
@@ -8375,7 +8375,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>albumina_porcentaje</t>
+          <t>ffq_cerezas</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8398,7 +8398,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>vcm</t>
+          <t>pgh_h_dormir</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E347" t="b">
         <v>1</v>
@@ -8421,7 +8421,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ffq_ac_girasol</t>
+          <t>ffq_bebidas_vegetales</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8435,7 +8435,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E348" t="b">
         <v>1</v>
@@ -8444,7 +8444,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ffq_vit_b3</t>
+          <t>ffq_ac_mezcla</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -8467,7 +8467,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>wcst_ep_t</t>
+          <t>ffq_bebida_energetica</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8490,7 +8490,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>cv_physical_100</t>
+          <t>linfocitos</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -8513,7 +8513,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ffq_j_serrano</t>
+          <t>tom_crudo</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -8536,7 +8536,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ffq_polisacaridos</t>
+          <t>vit_d3</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -8550,7 +8550,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E353" t="b">
         <v>1</v>
@@ -8559,7 +8559,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>indice_albumina_globulinas</t>
+          <t>ffq_turrones</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -8582,7 +8582,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ffq_z_frutasnat</t>
+          <t>ffq_yogur_des</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -8605,7 +8605,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ffq_retinoides</t>
+          <t>ffq_vit_b9</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ffq_esparragos</t>
+          <t>ffq_cebollas</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -8651,7 +8651,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>saturacion_transferrina</t>
+          <t>vol_plaquetario</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -8665,7 +8665,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E358" t="b">
         <v>1</v>
@@ -8674,7 +8674,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>betacriptoxantina</t>
+          <t>PAS_izq</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -8688,7 +8688,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E359" t="b">
         <v>1</v>
@@ -8697,7 +8697,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>d2_vt_pc</t>
+          <t>betacaroteno</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -8720,7 +8720,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>pgh_por_eficiencia</t>
+          <t>grasa</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -8743,7 +8743,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ffq_p_azul</t>
+          <t>ffq_polisacaridos</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -8766,7 +8766,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>vol_plaquetario</t>
+          <t>vit_b12</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -8789,7 +8789,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ffq_churro</t>
+          <t>ffq_margarinas</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -8812,7 +8812,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>fibrinogeno</t>
+          <t>tsh</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E365" t="b">
         <v>1</v>
@@ -8835,7 +8835,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ipaq_min_int</t>
+          <t>ind_frag</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E366" t="b">
         <v>1</v>
@@ -8858,7 +8858,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ffq_acelgas</t>
+          <t>cv_social_relationships_100</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8881,7 +8881,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>fosfatasa_alcalina</t>
+          <t>ffq_tortitas</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -8904,7 +8904,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ffq_turrones</t>
+          <t>ffq_c_cerdonomagra</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -8927,7 +8927,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>af_ligera_porcentaje</t>
+          <t>tiempo_protrombina_rati</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E370" t="b">
         <v>1</v>
@@ -8950,7 +8950,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>FC_media</t>
+          <t>chcm</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -8973,21 +8973,21 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>pgh_somnolencias</t>
+          <t>ffq_infusiones</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Ordinal</t>
+          <t>Numerica</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>zvar</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E372" t="b">
         <v>1</v>
@@ -8996,7 +8996,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>isi_2</t>
+          <t>pgh_5a</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E373" t="b">
         <v>1</v>
@@ -9019,7 +9019,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>cv_p11</t>
+          <t>cv_p17</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -9042,7 +9042,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>tom_fa</t>
+          <t>cv_p12</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -9056,7 +9056,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E375" t="b">
         <v>1</v>
@@ -9065,7 +9065,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>cv_p13</t>
+          <t>cv_p7</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -9088,7 +9088,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>isi_3</t>
+          <t>tom_momento</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -9111,7 +9111,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>pgh_5g</t>
+          <t>bristol</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -9125,7 +9125,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E378" t="b">
         <v>1</v>
@@ -9134,7 +9134,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>cv_p10</t>
+          <t>cafe</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -9148,7 +9148,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E379" t="b">
         <v>1</v>
@@ -9157,7 +9157,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>tom_otro</t>
+          <t>cv_p11</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E380" t="b">
         <v>1</v>
@@ -9180,7 +9180,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>pgh_5d</t>
+          <t>ipaq_dias_cam</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -9194,7 +9194,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E381" t="b">
         <v>1</v>
@@ -9203,7 +9203,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida</t>
+          <t>fn_cara</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -9226,7 +9226,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>cv_p23</t>
+          <t>pgh_compañia_b</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -9240,7 +9240,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E383" t="b">
         <v>1</v>
@@ -9249,7 +9249,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>total_meds</t>
+          <t>af_libre</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -9263,7 +9263,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E384" t="b">
         <v>1</v>
@@ -9295,7 +9295,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>pgh_5c</t>
+          <t>pgh_somnolencias</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -9318,7 +9318,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>pgh_compañia_a</t>
+          <t>nivel_e</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E387" t="b">
         <v>1</v>
@@ -9364,7 +9364,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>pgh_eficiencia</t>
+          <t>edo_civil</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -9378,7 +9378,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E389" t="b">
         <v>1</v>
@@ -9387,7 +9387,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>frec_alcohol</t>
+          <t>tom_otro</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -9410,7 +9410,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>pgh_5j</t>
+          <t>puntaje_moca</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E391" t="b">
         <v>1</v>
@@ -9433,7 +9433,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>cv_p7</t>
+          <t>cv_p2</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E392" t="b">
         <v>1</v>
@@ -9456,7 +9456,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>pgh_compañia</t>
+          <t>pgh_tener_animos</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -9479,7 +9479,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>pgh_5e</t>
+          <t>pgh_5d</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -9502,7 +9502,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>pgh_5h</t>
+          <t>pgh_5i</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -9525,7 +9525,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ipaq_dias_mod</t>
+          <t>cv_p6</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E396" t="b">
         <v>1</v>
@@ -9548,7 +9548,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>cv_p24</t>
+          <t>cv_p16</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -9571,7 +9571,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>pgh_compañia_c</t>
+          <t>wcst_cc_pd</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -9594,7 +9594,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>nivel_e</t>
+          <t>pgh_5b</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E399" t="b">
         <v>1</v>
@@ -9617,7 +9617,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>pgh_tener_animos</t>
+          <t>cv_p23</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E400" t="b">
         <v>1</v>
@@ -9640,7 +9640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>edo_civil</t>
+          <t>cv_percepcion_salud_100</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -9654,7 +9654,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E401" t="b">
         <v>1</v>
@@ -9663,7 +9663,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>pgh_latencia</t>
+          <t>isi_1b</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -9677,7 +9677,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E402" t="b">
         <v>1</v>
@@ -9686,7 +9686,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>bristol</t>
+          <t>cv_p15</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E403" t="b">
         <v>1</v>
@@ -9709,7 +9709,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud_100</t>
+          <t>covid</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -9723,7 +9723,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E404" t="b">
         <v>1</v>
@@ -9732,7 +9732,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>pgh_5a</t>
+          <t>cv_p8</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E405" t="b">
         <v>1</v>
@@ -9755,7 +9755,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>cv_p19</t>
+          <t>isi_3</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -9769,7 +9769,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E406" t="b">
         <v>1</v>
@@ -9778,7 +9778,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>personas_hogar</t>
+          <t>tipo_alcohol</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -9792,7 +9792,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E407" t="b">
         <v>1</v>
@@ -9801,7 +9801,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>fn_cara</t>
+          <t>pgh_compañia</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -9815,7 +9815,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E408" t="b">
         <v>1</v>
@@ -9824,7 +9824,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>pgh_duracion_sueño</t>
+          <t>isi_4</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E409" t="b">
         <v>1</v>
@@ -9847,7 +9847,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>fn_nombre</t>
+          <t>cv_p24</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E410" t="b">
         <v>1</v>
@@ -9870,7 +9870,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>puntaje_moca</t>
+          <t>pgh_eficiencia</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E411" t="b">
         <v>1</v>
@@ -9893,7 +9893,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>cv_p3</t>
+          <t>ipaq_dias_int</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E412" t="b">
         <v>1</v>
@@ -9916,7 +9916,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>isi_1b</t>
+          <t>tom_fa</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -9930,7 +9930,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E413" t="b">
         <v>1</v>
@@ -9939,7 +9939,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>tabaco</t>
+          <t>pgh_calidad_sueño</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -9962,7 +9962,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>frec_alcohol_audit</t>
+          <t>cv_p10</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -9985,7 +9985,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>pgh_5f</t>
+          <t>pgh_h_acostarse</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E416" t="b">
         <v>1</v>
@@ -10008,7 +10008,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>pgh_disfuncion_dia</t>
+          <t>isi_1c</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -10022,7 +10022,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E417" t="b">
         <v>1</v>
@@ -10031,7 +10031,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud</t>
+          <t>wcst_años_educacion</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -10045,7 +10045,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E418" t="b">
         <v>1</v>
@@ -10054,7 +10054,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>isi_4</t>
+          <t>pgh_5c</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E419" t="b">
         <v>1</v>
@@ -10077,7 +10077,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>pgh_calidad_sueño</t>
+          <t>isi_5</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -10091,7 +10091,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E420" t="b">
         <v>1</v>
@@ -10100,7 +10100,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>pgh_compañia_d</t>
+          <t>cv_p5</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -10114,7 +10114,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E421" t="b">
         <v>1</v>
@@ -10123,7 +10123,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ipaq_dias_int</t>
+          <t>pgh_compañia_a</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -10137,7 +10137,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E422" t="b">
         <v>1</v>
@@ -10146,7 +10146,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>pgh_compañia_b</t>
+          <t>pgh_5h</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -10169,7 +10169,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>cv_p16</t>
+          <t>pgh_latencia</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -10183,7 +10183,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E424" t="b">
         <v>1</v>
@@ -10192,7 +10192,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ipaq_dias_cam</t>
+          <t>pgh_5j</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E425" t="b">
         <v>1</v>
@@ -10215,7 +10215,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>isi_1c</t>
+          <t>isi_1a</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -10238,7 +10238,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>isi_1a</t>
+          <t>tom_horno</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E427" t="b">
         <v>1</v>
@@ -10261,7 +10261,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>tipo_alcohol</t>
+          <t>fn_nombre</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -10275,7 +10275,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E428" t="b">
         <v>1</v>
@@ -10284,7 +10284,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>tipo_dieta</t>
+          <t>wcst_ep_pd</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -10298,7 +10298,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E429" t="b">
         <v>1</v>
@@ -10307,7 +10307,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>cafe</t>
+          <t>tabaco</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -10330,7 +10330,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>puntaje_audit</t>
+          <t>cv_p21</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -10344,7 +10344,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E431" t="b">
         <v>1</v>
@@ -10353,7 +10353,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>cv_p8</t>
+          <t>frec_alcohol</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -10367,7 +10367,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E432" t="b">
         <v>1</v>
@@ -10376,7 +10376,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>wcst_ep_pd</t>
+          <t>pgh_duracion_sueño</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E433" t="b">
         <v>1</v>
@@ -10399,7 +10399,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>wcst_cc_pd</t>
+          <t>cv_p26</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E434" t="b">
         <v>1</v>
@@ -10422,7 +10422,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>cv_p14</t>
+          <t>pgh_5e</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -10436,7 +10436,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E435" t="b">
         <v>1</v>
@@ -10445,7 +10445,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>wcst_años_educacion</t>
+          <t>frec_alcohol_audit</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E436" t="b">
         <v>1</v>
@@ -10468,7 +10468,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>sodio</t>
+          <t>cv_p1</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E437" t="b">
         <v>1</v>
@@ -10491,7 +10491,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>siesta</t>
+          <t>pgh_disfuncion_dia</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -10514,7 +10514,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>cv_p2</t>
+          <t>pgh_5g</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -10528,7 +10528,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E439" t="b">
         <v>1</v>
@@ -10537,7 +10537,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ipaq_nivel_af</t>
+          <t>cv_percepcion_salud</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -10551,7 +10551,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E440" t="b">
         <v>1</v>
@@ -10560,7 +10560,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>cv_p6</t>
+          <t>siesta</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -10574,7 +10574,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E441" t="b">
         <v>1</v>
@@ -10583,7 +10583,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>af_libre</t>
+          <t>pgh_med_dormir</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E442" t="b">
         <v>1</v>
@@ -10606,7 +10606,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>pgh_5i</t>
+          <t>pgh_compañia_d</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -10629,7 +10629,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>pgh_med_dormir</t>
+          <t>cv_p20</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -10643,7 +10643,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E444" t="b">
         <v>1</v>
@@ -10652,7 +10652,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida_100</t>
+          <t>isi_2</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -10675,7 +10675,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>pgh_5b</t>
+          <t>sodio</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -10689,7 +10689,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E446" t="b">
         <v>1</v>
@@ -10698,7 +10698,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>cv_p1</t>
+          <t>personas_hogar</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -10721,7 +10721,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>covid</t>
+          <t>cv_p14</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -10735,7 +10735,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E448" t="b">
         <v>1</v>
@@ -10744,7 +10744,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>cv_p26</t>
+          <t>cv_p19</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -10758,7 +10758,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E449" t="b">
         <v>1</v>
@@ -10767,7 +10767,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>memoria_moca</t>
+          <t>tipo_dieta</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -10781,7 +10781,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E450" t="b">
         <v>1</v>
@@ -10790,7 +10790,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>cv_p20</t>
+          <t>pgh_h_levantarse</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E451" t="b">
         <v>1</v>
@@ -10813,7 +10813,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>cv_p25</t>
+          <t>cv_percepcion_calidad_vida</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -10836,7 +10836,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>af_trabajo</t>
+          <t>pgh_5f</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -10859,7 +10859,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>cv_p17</t>
+          <t>cv_p13</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -10873,7 +10873,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E454" t="b">
         <v>1</v>
@@ -10882,7 +10882,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>tom_momento</t>
+          <t>ipaq_dias_mod</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E455" t="b">
         <v>1</v>
@@ -10905,7 +10905,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>pgh_perturbaciones</t>
+          <t>puntaje_audit</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -10919,7 +10919,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E456" t="b">
         <v>1</v>
@@ -10928,7 +10928,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>cv_p21</t>
+          <t>cv_p3</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -10951,7 +10951,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>isi_5</t>
+          <t>total_meds</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -10965,7 +10965,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E458" t="b">
         <v>1</v>
@@ -10974,7 +10974,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>cv_p15</t>
+          <t>pgh_perturbaciones</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -10988,7 +10988,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E459" t="b">
         <v>1</v>
@@ -10997,7 +10997,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>tom_horno</t>
+          <t>af_trabajo</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -11011,7 +11011,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E460" t="b">
         <v>1</v>
@@ -11020,7 +11020,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>cv_p12</t>
+          <t>pgh_compañia_c</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -11034,7 +11034,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E461" t="b">
         <v>1</v>
@@ -11043,7 +11043,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>cv_p5</t>
+          <t>ipaq_nivel_af</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E462" t="b">
         <v>1</v>
@@ -11066,21 +11066,21 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>int_quirugica</t>
+          <t>cv_p25</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Binaria</t>
+          <t>Ordinal</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>minority_freq</t>
+          <t>nunique</t>
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0.09523809523809523</v>
+        <v>5</v>
       </c>
       <c r="E463" t="b">
         <v>1</v>
@@ -11089,44 +11089,44 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ffq_leche_cond</t>
+          <t>cv_percepcion_calidad_vida_100</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Binaria</t>
+          <t>Ordinal</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>minority_freq</t>
+          <t>nunique</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0.02380952380952384</v>
+        <v>5</v>
       </c>
       <c r="E464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ffq_v_rosado</t>
+          <t>memoria_moca</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Binaria</t>
+          <t>Ordinal</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>minority_freq</t>
+          <t>nunique</t>
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0.1309523809523809</v>
+        <v>5</v>
       </c>
       <c r="E465" t="b">
         <v>1</v>
@@ -11135,7 +11135,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ejercicio</t>
+          <t>fibra_mucoide_sed_(1-3)</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -11149,7 +11149,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.06547619047619047</v>
       </c>
       <c r="E466" t="b">
         <v>1</v>
@@ -11158,7 +11158,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>bilirrubina_orina</t>
+          <t>cetonas_orina</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -11181,7 +11181,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>medicamentos</t>
+          <t>hematies_sed_(25-30)</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E468" t="b">
         <v>1</v>
@@ -11204,7 +11204,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>aspirina</t>
+          <t>oxalato_calcico_sed_(20-35)</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -11218,16 +11218,16 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E469" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ffq_visceras</t>
+          <t>precipitados_urat_sed_Moderado</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0.02976190476190477</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E470" t="b">
         <v>0</v>
@@ -11250,7 +11250,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>num_depo_Dos + Por Día</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -11264,7 +11264,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="E471" t="b">
         <v>1</v>
@@ -11273,7 +11273,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ffq_mantecacer</t>
+          <t>trabajo</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -11287,16 +11287,16 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>0.0535714285714286</v>
+        <v>0.04761904761904767</v>
       </c>
       <c r="E472" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>antibioticos</t>
+          <t>cat_pgh_total</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -11310,7 +11310,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0.0535714285714286</v>
+        <v>0.4226190476190477</v>
       </c>
       <c r="E473" t="b">
         <v>1</v>
@@ -11319,7 +11319,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>tom_completo</t>
+          <t>fam_cardiacos</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -11333,7 +11333,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0.1190476190476191</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E474" t="b">
         <v>1</v>
@@ -11342,7 +11342,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ffq_ac_maiz</t>
+          <t>leucocitos_sed_(1-5)</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -11356,7 +11356,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>0</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E475" t="b">
         <v>0</v>
@@ -11365,7 +11365,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>adherencia_lic</t>
+          <t>fibra_mucoide_sed_Moderado</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -11379,16 +11379,16 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E476" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>otras_med</t>
+          <t>observaciones_Si</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.05952380952380953</v>
       </c>
       <c r="E477" t="b">
         <v>1</v>
@@ -11411,7 +11411,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>cetonas_orina</t>
+          <t>nitritos_orina</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -11425,7 +11425,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E478" t="b">
         <v>0</v>
@@ -11434,7 +11434,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>prebioticos</t>
+          <t>num_depo_Una Por Día</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -11448,7 +11448,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="E479" t="b">
         <v>1</v>
@@ -11457,7 +11457,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>fam_cardiacos</t>
+          <t>medicamentos</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="E480" t="b">
         <v>1</v>
@@ -11480,7 +11480,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>trabajo</t>
+          <t>vitaminas</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -11494,16 +11494,16 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0.04761904761904767</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="E481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>urobilinogeno_orina</t>
+          <t>hematies_sed_Moderado</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>0.2738095238095238</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E482" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>leucocitos_orina</t>
+          <t>celulas_epiteliales_sed_(5-10)</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -11540,16 +11540,16 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E483" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>albumina_orina</t>
+          <t>suplementos</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -11563,16 +11563,16 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>fam_diabetes</t>
+          <t>hemoglobina_orina</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.07738095238095233</v>
       </c>
       <c r="E485" t="b">
         <v>1</v>
@@ -11595,7 +11595,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>fam_acvascular</t>
+          <t>fam_enfgastro</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -11609,7 +11609,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="E486" t="b">
         <v>1</v>
@@ -11618,7 +11618,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>fam_hta</t>
+          <t>descansa</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -11641,7 +11641,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>cat_pgh_total</t>
+          <t>int_quirugica</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -11655,7 +11655,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>0.4226190476190477</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E488" t="b">
         <v>1</v>
@@ -11664,7 +11664,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>alergias_alim</t>
+          <t>fibra_mucoide_sed_(20-35)</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -11678,16 +11678,16 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.04166666666666663</v>
       </c>
       <c r="E489" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>cambios_sueño</t>
+          <t>tom_completo</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -11701,7 +11701,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1190476190476191</v>
       </c>
       <c r="E490" t="b">
         <v>1</v>
@@ -11710,7 +11710,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>fam_enfgastro</t>
+          <t>ffq_v_rosado</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -11724,7 +11724,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.1309523809523809</v>
       </c>
       <c r="E491" t="b">
         <v>1</v>
@@ -11733,7 +11733,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>enf</t>
+          <t>bacterias_sed_(20-35)</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -11747,7 +11747,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>0.2321428571428571</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="E492" t="b">
         <v>1</v>
@@ -11756,7 +11756,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ffq_almibar</t>
+          <t>bilirrubina_orina</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -11770,7 +11770,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>0.01190476190476186</v>
+        <v>0</v>
       </c>
       <c r="E493" t="b">
         <v>0</v>
@@ -11779,7 +11779,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>descansa</t>
+          <t>menst_tipo_MPM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -11793,7 +11793,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="E494" t="b">
         <v>1</v>
@@ -11802,7 +11802,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>hemoglobina_orina</t>
+          <t>leucocitos_sed_Moderado</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -11816,7 +11816,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>0.07738095238095233</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E495" t="b">
         <v>1</v>
@@ -11825,7 +11825,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>tranquilizantes</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -11839,16 +11839,16 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>0.04761904761904767</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>glucosa_orina</t>
+          <t>ffq_visceras</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -11862,7 +11862,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>0</v>
+        <v>0.02976190476190477</v>
       </c>
       <c r="E497" t="b">
         <v>0</v>
@@ -11871,7 +11871,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>suplementos</t>
+          <t>antibioticos</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -11885,7 +11885,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="E498" t="b">
         <v>1</v>
@@ -11894,7 +11894,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>fam_colesterol</t>
+          <t>otras_med</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -11917,7 +11917,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>fam_obesidad</t>
+          <t>leucocitos_sed_(3-5)</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -11931,16 +11931,16 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E500" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>nitritos_orina</t>
+          <t>bacterias_sed_Negativo</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -11954,7 +11954,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0.01190476190476186</v>
+        <v>0.02976190476190477</v>
       </c>
       <c r="E501" t="b">
         <v>0</v>
@@ -11963,7 +11963,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>cambios_apetito</t>
+          <t>bacterias_sed_Moderado</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -11977,16 +11977,16 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.02976190476190477</v>
       </c>
       <c r="E502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>vitaminas</t>
+          <t>celulas_epiteliales_sed_(20-35)</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.08333333333333337</v>
       </c>
       <c r="E503" t="b">
         <v>1</v>
@@ -12009,7 +12009,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>sexo</t>
+          <t>fam_colesterol</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -12023,7 +12023,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="E504" t="b">
         <v>1</v>
@@ -12032,7 +12032,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>menst_flag</t>
+          <t>hematies_sed_Negativo</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -12046,53 +12046,53 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>0.4880952380952381</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="E505" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>menst_tipo</t>
+          <t>leucocitos_sed_Abundante</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>3</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E506" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>celulas_epiteliales_sed</t>
+          <t>menst_tipo_MEF</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>4</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="E507" t="b">
         <v>1</v>
@@ -12101,44 +12101,44 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>pgh_h_levantarse</t>
+          <t>oxalato_calcico_sed_(35-60)</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>28</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E508" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>leucocitos_sed</t>
+          <t>urobilinogeno_orina</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>9</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="E509" t="b">
         <v>1</v>
@@ -12147,21 +12147,21 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>precipitados_urat_sed</t>
+          <t>hematies_sed_(1-5)</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>1</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="E510" t="b">
         <v>0</v>
@@ -12170,21 +12170,21 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>observaciones</t>
+          <t>fam_hta</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D511" t="n">
-        <v>2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E511" t="b">
         <v>1</v>
@@ -12193,21 +12193,21 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>cilindros_hialinos_sed</t>
+          <t>hematies_sed_Ausente</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D512" t="n">
-        <v>1</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E512" t="b">
         <v>0</v>
@@ -12216,21 +12216,21 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>pgh_h_acostarse</t>
+          <t>fam_obesidad</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D513" t="n">
-        <v>20</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E513" t="b">
         <v>1</v>
@@ -12239,67 +12239,67 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>tmb</t>
+          <t>ffq_almibar</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D514" t="n">
-        <v>152</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E514" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>num_depo</t>
+          <t>hematies_sed_(10-20)</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>3</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E515" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>hematies_sed</t>
+          <t>leucocitos_sed_Negativo</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D516" t="n">
-        <v>8</v>
+        <v>0.07738095238095233</v>
       </c>
       <c r="E516" t="b">
         <v>1</v>
@@ -12308,21 +12308,21 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>bacterias_sed</t>
+          <t>leucocitos_orina</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D517" t="n">
-        <v>3</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E517" t="b">
         <v>1</v>
@@ -12331,46 +12331,598 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>fibra_mucoide_sed</t>
+          <t>ffq_leche_cond</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D518" t="n">
-        <v>3</v>
+        <v>0.02380952380952384</v>
       </c>
       <c r="E518" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>oxalato_calcico_sed</t>
+          <t>adherencia_lic</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Categorica</t>
+          <t>Binaria</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>nunique</t>
+          <t>minority_freq</t>
         </is>
       </c>
       <c r="D519" t="n">
-        <v>3</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E519" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>fam_acvascular</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="E520" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>hematies_sed_Escaso</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>0.005952380952380931</v>
+      </c>
+      <c r="E521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>enf</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>0.2321428571428571</v>
+      </c>
+      <c r="E522" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>albumina_orina</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
+      <c r="E523" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>oxalato_calcico_sed_(5-10)</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>0.005952380952380931</v>
+      </c>
+      <c r="E524" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>prebioticos</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="E525" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>ffq_ac_maiz</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+      <c r="E526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>celulas_epiteliales_sed_(100-150)</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>0.01190476190476186</v>
+      </c>
+      <c r="E527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>celulas_epiteliales_sed_Negativo</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>0.02380952380952384</v>
+      </c>
+      <c r="E528" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>cambios_apetito</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="E529" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>sexo</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+      <c r="E530" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>ffq_mantecacer</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>0.0535714285714286</v>
+      </c>
+      <c r="E531" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>tranquilizantes</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>0.04761904761904767</v>
+      </c>
+      <c r="E532" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>cambios_sueño</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="E533" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>ejercicio</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="E534" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>alergias_alim</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="E535" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>hematies_sed_Abundante</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>0.0178571428571429</v>
+      </c>
+      <c r="E536" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>glucosa_orina</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+      <c r="E537" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>bacterias_sed_(5-10)</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>0.04761904761904767</v>
+      </c>
+      <c r="E538" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>menst_flag</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>0.4880952380952381</v>
+      </c>
+      <c r="E539" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>oxalato_calcico_sed_Moderado</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>0.005952380952380931</v>
+      </c>
+      <c r="E540" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>leucocitos_sed_Escaso</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>0.01190476190476186</v>
+      </c>
+      <c r="E541" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>aspirina</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="E542" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>fam_diabetes</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Binaria</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>minority_freq</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>0.4523809523809523</v>
+      </c>
+      <c r="E543" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Entregables/UdeBarcelona/umbral_varianza.xlsx
+++ b/Entregables/UdeBarcelona/umbral_varianza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E543"/>
+  <dimension ref="A1:E537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ffq_helados</t>
+          <t>ffq_esparragos</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ffq_picante</t>
+          <t>ffq_pollopiel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>monocitos_porcentaje</t>
+          <t>ffq_tortitas</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ffq_vit_b3</t>
+          <t>ffq_carnes_procesadas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>talla</t>
+          <t>wcst_ep_t</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>edad</t>
+          <t>ffq_aceitunas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PAS_der</t>
+          <t>ffq_v_blanco</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ipaq_min_mod</t>
+          <t>cv_enviroment</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -647,7 +647,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ffq_cacao</t>
+          <t>ffq_bacalao</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eosinofilos</t>
+          <t>ffq_pates</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bilirrubina_total</t>
+          <t>transferrina</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ffq_k</t>
+          <t>ffq_alubiaseca</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cv_physical</t>
+          <t>cintura_cadera</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ffq_pistacho</t>
+          <t>cv_p4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ffq_higad</t>
+          <t>ffq_kiwis</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ffq_p_fritascas</t>
+          <t>delta_d2_con_pd</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>d2_con_pd</t>
+          <t>ffq_q_fresco</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hierro</t>
+          <t>t4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ffq_surimi</t>
+          <t>d2_con_pt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -900,7 +900,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>alfacaroteno</t>
+          <t>PAD_izq</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -923,7 +923,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>creatinina</t>
+          <t>ffq_snack</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -946,7 +946,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ad_dietamed</t>
+          <t>ffq_mostaz</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cintura_cadera</t>
+          <t>ffq_energiatot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ffq_sandi</t>
+          <t>indice_albumina_globulinas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ffq_croquetas</t>
+          <t>linfocitos_porcentaje</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ffq_crustaceos</t>
+          <t>ffq_cafedesc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,7 +1061,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ffq_jverde</t>
+          <t>ffq_p</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ffq_g_choco</t>
+          <t>ldh</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1107,7 +1107,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ffq_tropicales</t>
+          <t>ipaq_min_mod</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1130,7 +1130,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ffq_muesli</t>
+          <t>d2_con1_pd</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1153,7 +1153,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ffq_ac_oliva</t>
+          <t>ffq_natilla</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tom_dias</t>
+          <t>cortisol</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ph_orina</t>
+          <t>ffq_bebidas_vegetales</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>densidad_orina</t>
+          <t>ph_orina</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ffq_leche_ent</t>
+          <t>ffq_croissant</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ffq_fe</t>
+          <t>tom_no</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1291,7 +1291,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ffq_lechug</t>
+          <t>fosfatasa_alcalina</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>transferrina</t>
+          <t>albumina</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ffq_mg</t>
+          <t>wcst_pp_pd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>selenio</t>
+          <t>ffq_polisacaridos</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ffq_fresa</t>
+          <t>ffq_licores</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1406,7 +1406,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>num_despertares</t>
+          <t>cv_physical</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1429,7 +1429,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ffq_requeson</t>
+          <t>ffq_arrozINT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9999999999999991</v>
+        <v>1</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1452,7 +1452,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ffq_ajos</t>
+          <t>grasa_vic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1475,7 +1475,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ffq_tomat</t>
+          <t>ffq_agua</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -1498,7 +1498,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ffq_pollopiel</t>
+          <t>af_mv</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -1521,7 +1521,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ffq_nata_crema</t>
+          <t>ffq_mantequillas</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1544,7 +1544,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>horas_sueño_fs</t>
+          <t>pgh_h_dormir</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>d2_vt_pd</t>
+          <t>densidad_orina</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ffq_ac_girasol</t>
+          <t>bdnf</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ffq_snack</t>
+          <t>vit_d3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -1636,7 +1636,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>inr</t>
+          <t>ffq_retinoides</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1659,7 +1659,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ffq_pastaINT</t>
+          <t>musculo</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -1682,7 +1682,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>horas_cama</t>
+          <t>ffq_zn</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -1705,7 +1705,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ffq_calamar</t>
+          <t>ffq_agp</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>vsg</t>
+          <t>ffq_vit_b2</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1751,7 +1751,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ffq_yogur_ent</t>
+          <t>alat</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -1774,7 +1774,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>alfa2_globulina</t>
+          <t>homa_ir</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>horas_sueño</t>
+          <t>ffq_espagueti</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -1820,7 +1820,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>saturacion_transferrina</t>
+          <t>ffq_p_azul</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>homocisteina_basal</t>
+          <t>ffq_almejas</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -1866,7 +1866,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ffq_acelgas</t>
+          <t>zeaxantina</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -1889,7 +1889,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ffq_q_fresco</t>
+          <t>pgh_min_dormirse</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -1912,7 +1912,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>hematocrito</t>
+          <t>glucosa</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cloro</t>
+          <t>ffq_te</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -1958,7 +1958,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>monocitos</t>
+          <t>ipaq_mets</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1981,7 +1981,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>af_ligera</t>
+          <t>ffq_avellanas</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -2004,7 +2004,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ffq_p_natural</t>
+          <t>tsh</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -2027,7 +2027,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>d2_vt_pt</t>
+          <t>hematies</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2050,7 +2050,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ffq_arrozINT</t>
+          <t>ffq_ac_girasol</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -2073,7 +2073,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>min_cama</t>
+          <t>ac_folico_intraeritrocitos</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hcm</t>
+          <t>alfa2_globulina</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -2119,7 +2119,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ffq_ags</t>
+          <t>min_dormir</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -2142,7 +2142,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Palabras_moca</t>
+          <t>ffq_requeson</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
@@ -2165,7 +2165,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ffq_prot</t>
+          <t>col_hdl</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>imc</t>
+          <t>ffq_guisantes</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ffq_huevos</t>
+          <t>ffq_platanos</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ffq_alubiaseca</t>
+          <t>pgh_total</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2257,7 +2257,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>af_ligera_porcentaje</t>
+          <t>trigliceridos</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -2280,7 +2280,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PAD_izq</t>
+          <t>neutrofilos_porcentaje</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2303,7 +2303,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>hematies</t>
+          <t>ffq_cavas</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ffq_esparragos</t>
+          <t>ffq_gazpach</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -2349,7 +2349,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ffq_vit_e</t>
+          <t>ffq_lenteja</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ipaq_mets</t>
+          <t>imc</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2395,7 +2395,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>d2_vt_pc</t>
+          <t>ffq_alcohol</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>indice_albumina_creatinina</t>
+          <t>proteinas_totales</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2441,7 +2441,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cv_p18</t>
+          <t>basofilos_porcentaje</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cv_physical_100</t>
+          <t>fn_score</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2487,7 +2487,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ffq_pimientos</t>
+          <t>ffq_batidos</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2510,7 +2510,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>cintura_media</t>
+          <t>ffq_sandi</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2533,7 +2533,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>apolipoproteina_a1</t>
+          <t>ffq_ca</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2556,7 +2556,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>insulina</t>
+          <t>linfocitos</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2579,7 +2579,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>d2_con4_pd</t>
+          <t>ffq_p_fritascom</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2602,7 +2602,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ffq_refrescsin</t>
+          <t>ffq_bebida_energetica</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -2625,7 +2625,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>wcst_ife_pd</t>
+          <t>ac_urico</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2648,7 +2648,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ffq_cervezas</t>
+          <t>cloro</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -2671,7 +2671,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ac_folico_serico</t>
+          <t>ffq_ac_oliva</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2694,7 +2694,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ffq_otrasver</t>
+          <t>ffq_j_serrano</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
@@ -2717,7 +2717,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ffq_almejas</t>
+          <t>hemoglobina_glicada</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -2740,7 +2740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>calcio</t>
+          <t>ffq_c_conejo</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -2763,7 +2763,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>cv_enviroment_100</t>
+          <t>ffq_churro</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2786,7 +2786,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ffq_agua</t>
+          <t>ind_mov</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E103" t="b">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ffq_paninteg</t>
+          <t>potasio</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2832,7 +2832,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>gamma_globulina</t>
+          <t>cv_enviroment_100</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -2855,7 +2855,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ind_frag_sueño</t>
+          <t>ffq_pizzas</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2869,7 +2869,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E106" t="b">
         <v>1</v>
@@ -2878,7 +2878,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>albumina</t>
+          <t>licopeno</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2901,7 +2901,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ffq_alcohol</t>
+          <t>ffq_turrones</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2924,7 +2924,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mortality_risk</t>
+          <t>ffq_seta</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
@@ -2947,7 +2947,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>dif_crono_pheno</t>
+          <t>tiempo_protrombina_porcentaje</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E110" t="b">
         <v>1</v>
@@ -2970,7 +2970,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>asat</t>
+          <t>d2_vt_pc</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -2993,7 +2993,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ffq_vit_a</t>
+          <t>ffq_sal</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
@@ -3016,7 +3016,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>tiempo_protrombina_porcentaje</t>
+          <t>vsg</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3039,7 +3039,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ffq_carotenoides</t>
+          <t>d2_e_pc</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3062,7 +3062,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ffq_gazpach</t>
+          <t>ffq_garbanzos</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
@@ -3085,7 +3085,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>d2_con3_pd</t>
+          <t>eosinofilos_porcentaje</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3099,7 +3099,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E116" t="b">
         <v>1</v>
@@ -3108,7 +3108,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>phenoage</t>
+          <t>ffq_chocolate_negro</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3131,7 +3131,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ffq_churro</t>
+          <t>hcm</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E118" t="b">
         <v>1</v>
@@ -3154,7 +3154,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ffq_azuc</t>
+          <t>ffq_p_aceite</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3177,7 +3177,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ffq_espagueti</t>
+          <t>ffq_crustaceos</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -3200,7 +3200,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ffq_pasas</t>
+          <t>PAS_izq</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E121" t="b">
         <v>1</v>
@@ -3223,7 +3223,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ffq_edulcorantes</t>
+          <t>delta_bdnf</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3246,7 +3246,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>cv_enviroment</t>
+          <t>num_despertares</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3269,7 +3269,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>pasos_dia</t>
+          <t>ffq_cerezas</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>col_ldl</t>
+          <t>ffq_leche_ent</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3315,7 +3315,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>glucosa</t>
+          <t>FC_media</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E126" t="b">
         <v>1</v>
@@ -3338,7 +3338,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ffq_whisky</t>
+          <t>ffq_p_fritascas</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3361,7 +3361,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>delta_fn_nombre</t>
+          <t>cv_p9</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3384,7 +3384,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>hads_score</t>
+          <t>licopeno_trans</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
@@ -3407,7 +3407,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ffq_cerealdes</t>
+          <t>ffq_v_tintojov</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -3430,7 +3430,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>depresion</t>
+          <t>ffq_vit_d</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3453,7 +3453,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>fn_score</t>
+          <t>ffq_cebollas</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ffq_mantequillas</t>
+          <t>vol_plaquetario</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3499,7 +3499,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ffq_vit_b1</t>
+          <t>mg_dia_licopeno</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3522,7 +3522,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ffq_cafedesc</t>
+          <t>ffq_otros_embutidos</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3545,7 +3545,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>alfa1_globulina</t>
+          <t>ffq_yogur_des</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E136" t="b">
         <v>1</v>
@@ -3568,7 +3568,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>af_mv_procentaje</t>
+          <t>ffq_azuc</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3591,7 +3591,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ffq_mayones</t>
+          <t>g_dia_tom</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3614,7 +3614,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ffq_coles</t>
+          <t>ffq_panblanco</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E139" t="b">
         <v>1</v>
@@ -3637,7 +3637,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ffq_leche_desn</t>
+          <t>ffq_p_blanco</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E140" t="b">
         <v>1</v>
@@ -3660,7 +3660,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ffq_quinoa</t>
+          <t>asat</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E141" t="b">
         <v>1</v>
@@ -3683,7 +3683,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ffq_p_aceite</t>
+          <t>ffq_manzanas</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3706,7 +3706,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>mg_dia_licopeno</t>
+          <t>d2_con_pd</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3729,7 +3729,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ffq_g_integral</t>
+          <t>alfacaroteno</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3752,7 +3752,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ffq_sofrito</t>
+          <t>cintura_media</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E145" t="b">
         <v>1</v>
@@ -3775,7 +3775,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ffq_cerveza_sin</t>
+          <t>ind_frag</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E146" t="b">
         <v>1</v>
@@ -3798,7 +3798,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ffq_bizcocho</t>
+          <t>ffq_nata_crema</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3821,7 +3821,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>delta_d2_con_pd</t>
+          <t>ffq_mieles</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>col_total</t>
+          <t>fibrinogeno</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E149" t="b">
         <v>1</v>
@@ -3867,7 +3867,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>vcm</t>
+          <t>ffq_sofrito</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3890,7 +3890,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>albumina_orina_num</t>
+          <t>tiempo_protrombina</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E151" t="b">
         <v>1</v>
@@ -3913,7 +3913,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ffq_pina</t>
+          <t>eficiencia_sueño</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3936,7 +3936,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ind_mov</t>
+          <t>ffq_c_ternera</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3959,7 +3959,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>d2_e_pd</t>
+          <t>ffq_pasas</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3982,7 +3982,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ffq_platanos</t>
+          <t>peso</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4005,7 +4005,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ffq_semillas</t>
+          <t>ffq_huevos</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4019,7 +4019,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E156" t="b">
         <v>1</v>
@@ -4028,7 +4028,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ffq_refrescos</t>
+          <t>duracion_despertares</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E157" t="b">
         <v>1</v>
@@ -4051,7 +4051,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>cv_p9</t>
+          <t>ffq_zanahor</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4074,7 +4074,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ffq_g_sinazucar</t>
+          <t>hemoglobina</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4097,7 +4097,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ffq_na</t>
+          <t>ffq_calamar</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4111,7 +4111,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E160" t="b">
         <v>1</v>
@@ -4120,7 +4120,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ffq_azucares</t>
+          <t>ffq_perejil</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4143,7 +4143,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ffq_carnes_procesadas</t>
+          <t>ffq_g_maria</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E162" t="b">
         <v>1</v>
@@ -4166,7 +4166,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ffq_vit_c</t>
+          <t>apolipoproteina_b</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4189,7 +4189,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>cortisol</t>
+          <t>ffq_pistacho</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4212,7 +4212,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ffq_p_azul</t>
+          <t>af_ligera_porcentaje</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E165" t="b">
         <v>1</v>
@@ -4235,7 +4235,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>prealbumina</t>
+          <t>wcst_ife_pd</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E166" t="b">
         <v>1</v>
@@ -4258,7 +4258,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ffq_pastel</t>
+          <t>gamma_globulina</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E167" t="b">
         <v>1</v>
@@ -4281,7 +4281,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ffq_pates</t>
+          <t>saturacion_transferrina</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4304,7 +4304,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>wcst_pp_pd</t>
+          <t>monocitos_porcentaje</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4327,7 +4327,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>fn_letra</t>
+          <t>delta_fn_score</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4350,7 +4350,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ffq_bacalao</t>
+          <t>phenoage</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4373,7 +4373,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>trigliceridos</t>
+          <t>dif_crono_pheno</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E172" t="b">
         <v>1</v>
@@ -4396,7 +4396,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>basofilos_porcentaje</t>
+          <t>ffq_hc</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4419,7 +4419,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>basofilos</t>
+          <t>ipaq_min_int</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E174" t="b">
         <v>1</v>
@@ -4442,7 +4442,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ffq_grasa</t>
+          <t>grasa</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4465,7 +4465,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>potasio</t>
+          <t>apolipoproteina_a1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ffq_mostaz</t>
+          <t>wcst_cc_t</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4511,7 +4511,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>luteina</t>
+          <t>ffq_vit_a</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4534,7 +4534,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ffq_retinoides</t>
+          <t>wcst_ife_t</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4557,7 +4557,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ffq_protanim</t>
+          <t>licopeno_5cis</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4580,7 +4580,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>eficiencia_sueño</t>
+          <t>min_cama</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
@@ -4603,7 +4603,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ffq_c_cerdomagra</t>
+          <t>ffq_bacon</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4626,7 +4626,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ffq_p</t>
+          <t>ffq_cacao</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4649,7 +4649,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>peso</t>
+          <t>tiempo_protrombina_rati</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4672,7 +4672,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ffq_arrozblan</t>
+          <t>ffq_cafes</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4695,7 +4695,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ffq_uva</t>
+          <t>d2_vt_pd</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4718,7 +4718,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ffq_agp</t>
+          <t>ffq_protanim</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4741,7 +4741,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>homa_ir</t>
+          <t>ffq_arrozblan</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4764,7 +4764,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ffq_aceitunas</t>
+          <t>ffq_ajos</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E189" t="b">
         <v>1</v>
@@ -4787,7 +4787,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ffq_otros_lacteos</t>
+          <t>ffq_tropicales</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4810,7 +4810,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ffq_cavas</t>
+          <t>ggt</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4833,7 +4833,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>proteinas_totales</t>
+          <t>ffq_v_tintoañej</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4856,7 +4856,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ffq_pizzas</t>
+          <t>beta_globulina</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E193" t="b">
         <v>1</v>
@@ -4879,7 +4879,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ffq_batidos</t>
+          <t>vcm</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E194" t="b">
         <v>1</v>
@@ -4902,7 +4902,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>albumina_porcentaje</t>
+          <t>fn_letra</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4925,7 +4925,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ffq_licores</t>
+          <t>ffq_picante</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E196" t="b">
         <v>1</v>
@@ -4948,7 +4948,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ffq_leche_semi</t>
+          <t>ffq_margarinas</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ffq_zanahor</t>
+          <t>ffq_naranjas</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4994,7 +4994,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>d2_con_pt</t>
+          <t>hierro</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5008,7 +5008,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E199" t="b">
         <v>1</v>
@@ -5017,7 +5017,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>duracion_despertares</t>
+          <t>d2_vt_pt</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5040,7 +5040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>delta_d2_vt_pd</t>
+          <t>ffq_vit_b6</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5063,7 +5063,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ffq_p_cocidas</t>
+          <t>cv_psychological</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E202" t="b">
         <v>1</v>
@@ -5086,7 +5086,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ffq_hamburguesa</t>
+          <t>cadera_media</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5109,7 +5109,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ffq_avellanas</t>
+          <t>selenio</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E204" t="b">
         <v>1</v>
@@ -5132,7 +5132,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>tiempo_tromboplastina</t>
+          <t>ffq_lechug</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5155,7 +5155,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ffq_chocolate_negro</t>
+          <t>ffq_tomat</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5169,7 +5169,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
@@ -5178,7 +5178,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ipaq_min_int</t>
+          <t>creatinina</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5201,7 +5201,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ffq_quesito</t>
+          <t>wcst_pp_t</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E208" t="b">
         <v>1</v>
@@ -5224,7 +5224,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>tmb</t>
+          <t>ffq_leche_semi</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E209" t="b">
         <v>1</v>
@@ -5247,7 +5247,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>d2_con2_pd</t>
+          <t>leucocitos</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5261,7 +5261,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E210" t="b">
         <v>1</v>
@@ -5270,7 +5270,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>pgh_min_dormirse</t>
+          <t>t3</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E211" t="b">
         <v>1</v>
@@ -5293,7 +5293,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>lipasa</t>
+          <t>pasos_dia</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5316,7 +5316,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>delta_bdnf</t>
+          <t>depresion</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5339,7 +5339,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>af_mv</t>
+          <t>ffq_pimientos</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5362,7 +5362,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>d2_e_pt</t>
+          <t>ffq_infusiones</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E215" t="b">
         <v>1</v>
@@ -5385,7 +5385,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ffq_melocoton</t>
+          <t>horas_sueño_fs</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E216" t="b">
         <v>1</v>
@@ -5408,7 +5408,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ffq_agm</t>
+          <t>bun</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5431,7 +5431,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>licopeno_5cis</t>
+          <t>ffq_cerealdes</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E218" t="b">
         <v>1</v>
@@ -5454,7 +5454,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ffq_otros_embutidos</t>
+          <t>ffq_p_cocidas</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5477,7 +5477,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ffq_colesterol</t>
+          <t>delta_fn_nombre</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5500,7 +5500,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>wcst_ep_t</t>
+          <t>cv_physical_100</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E221" t="b">
         <v>1</v>
@@ -5523,7 +5523,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ffq_mermeladas</t>
+          <t>horas_sueño</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E222" t="b">
         <v>1</v>
@@ -5546,7 +5546,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>wcst_te_t</t>
+          <t>cv_p22</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5569,7 +5569,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ffq_cafes</t>
+          <t>ffq_z_frutasnat</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5583,7 +5583,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E224" t="b">
         <v>1</v>
@@ -5592,7 +5592,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>indice_albumina_globulinas</t>
+          <t>isi_total</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5615,7 +5615,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>grasa_vic</t>
+          <t>mortality_risk</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ffq_v_tintoañej</t>
+          <t>ffq_pastel</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E227" t="b">
         <v>1</v>
@@ -5661,7 +5661,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>neutrofilos_porcentaje</t>
+          <t>ffq_coles</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5684,7 +5684,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>bdnf</t>
+          <t>ffq_refrescsin</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5707,7 +5707,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ffq_perejil</t>
+          <t>ffq_ac_mezcla</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5730,7 +5730,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t3</t>
+          <t>af_ligera</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5753,7 +5753,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t4</t>
+          <t>ffq_acelgas</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5776,7 +5776,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ac_folico_intraeritrocitos</t>
+          <t>monocitos</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5799,7 +5799,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>d2_e_pc</t>
+          <t>ffq_agm</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5822,7 +5822,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>pgh_total</t>
+          <t>ffq_carotenoides</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5845,7 +5845,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>wcst_pp_t</t>
+          <t>PAS_der</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5868,7 +5868,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>linfocitos_porcentaje</t>
+          <t>ffq_nuez</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5891,7 +5891,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ffq_seta</t>
+          <t>ffq_higad</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5914,7 +5914,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>PAD_der</t>
+          <t>albumina_orina_num</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5937,7 +5937,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ffq_te</t>
+          <t>homocisteina_basal</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5960,7 +5960,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ffq_j_serrano</t>
+          <t>ffq_cerveza_sin</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E241" t="b">
         <v>1</v>
@@ -5983,7 +5983,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>zeaxantina</t>
+          <t>ipaq_horas_sent</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E242" t="b">
         <v>1</v>
@@ -6006,7 +6006,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ffq_c_ternera</t>
+          <t>cv_psychological_100</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6029,7 +6029,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ffq_manzanas</t>
+          <t>ferritina</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ffq_p_blanco</t>
+          <t>ffq_c_cerdomagra</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E245" t="b">
         <v>1</v>
@@ -6075,7 +6075,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>beta_globulina</t>
+          <t>magnesio</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -6098,7 +6098,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>cv_psychological</t>
+          <t>insulina</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E247" t="b">
         <v>1</v>
@@ -6121,7 +6121,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ffq_aguacate</t>
+          <t>ffq_edulcorantes</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -6144,7 +6144,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>cv_p4</t>
+          <t>ffq_p_natural</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -6158,7 +6158,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E249" t="b">
         <v>1</v>
@@ -6167,7 +6167,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>fosforo</t>
+          <t>ffq_bizcocho</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -6190,7 +6190,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ffq_z_natural</t>
+          <t>fosforo</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -6213,7 +6213,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>FC_media</t>
+          <t>PAD_der</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -6236,7 +6236,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>licopeno_trans</t>
+          <t>cv_social_relationships</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E253" t="b">
         <v>1</v>
@@ -6259,7 +6259,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ffq_bacon</t>
+          <t>prealbumina</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E254" t="b">
         <v>1</v>
@@ -6282,7 +6282,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ffq_c_conejo</t>
+          <t>ffq_leche_desn</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6305,7 +6305,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>cv_p22</t>
+          <t>filtrado_glomerular</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6328,7 +6328,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ffq_ca</t>
+          <t>ffq_semillas</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E257" t="b">
         <v>1</v>
@@ -6351,7 +6351,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ansiedad</t>
+          <t>delta_d2_vt_pd</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6374,7 +6374,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>plaquetas</t>
+          <t>ffq_hamburguesa</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6397,7 +6397,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>cobre</t>
+          <t>col_ldl</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>betacriptoxantina</t>
+          <t>talla</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6443,7 +6443,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>eosinofilos_porcentaje</t>
+          <t>vit_b12</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6457,7 +6457,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E262" t="b">
         <v>1</v>
@@ -6466,7 +6466,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ffq_vit_b6</t>
+          <t>ffq_otros_lacteos</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6489,7 +6489,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ffq_zn</t>
+          <t>ffq_tomatefri</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6512,7 +6512,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ffq_vit_d</t>
+          <t>tiempo_tromboplastina_rati</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6535,7 +6535,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>wcst_te_pd</t>
+          <t>ffq_vit_e</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ffq_kiwis</t>
+          <t>ffq_pastaINT</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E267" t="b">
         <v>1</v>
@@ -6581,7 +6581,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ffq_calabacin</t>
+          <t>ffq_otrasver</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6604,7 +6604,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>tom_cocido</t>
+          <t>tiempo_tromboplastina</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E269" t="b">
         <v>1</v>
@@ -6627,7 +6627,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ferritina</t>
+          <t>delta_licopeno</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6641,7 +6641,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E270" t="b">
         <v>1</v>
@@ -6650,7 +6650,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ipaq_horas_sent</t>
+          <t>d2_con3_pd</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6673,7 +6673,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ffq_sopasobre</t>
+          <t>ffq_ac_olivavir</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6696,7 +6696,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>col_hdl</t>
+          <t>ffq_mermeladas</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6719,7 +6719,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>tiempo_sedentario</t>
+          <t>tmb</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6733,7 +6733,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E274" t="b">
         <v>1</v>
@@ -6742,7 +6742,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>min_dormir</t>
+          <t>ffq_cervezas</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6765,7 +6765,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ffq_j_cocido</t>
+          <t>ffq_fe</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6788,7 +6788,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>fosfatasa_alcalina</t>
+          <t>d2_con2_pd</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E277" t="b">
         <v>1</v>
@@ -6811,7 +6811,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>cv_psychological_100</t>
+          <t>ffq_vit_c</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6834,7 +6834,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ffq_quesos</t>
+          <t>d2_con_pc</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6857,7 +6857,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ipaq_min_cam</t>
+          <t>ffq_g_sinazucar</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6880,7 +6880,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>tom_no</t>
+          <t>calcio</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6894,7 +6894,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E281" t="b">
         <v>1</v>
@@ -6903,7 +6903,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ffq_sal</t>
+          <t>ffq_vit_b1</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6917,7 +6917,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E282" t="b">
         <v>1</v>
@@ -6926,7 +6926,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ffq_lenteja</t>
+          <t>pgh_por_eficiencia</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6949,7 +6949,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ac_urico</t>
+          <t>tiempo_sedentario</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6963,7 +6963,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E284" t="b">
         <v>1</v>
@@ -6972,7 +6972,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ffq_almendras</t>
+          <t>d2_e_pt</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E285" t="b">
         <v>1</v>
@@ -6995,7 +6995,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ffq_guisantes</t>
+          <t>ffq_protveg</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -7018,7 +7018,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>waso</t>
+          <t>alfa1_globulina</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -7041,7 +7041,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>d2_con_pc</t>
+          <t>cobre</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -7064,7 +7064,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>zinc</t>
+          <t>ffq_z_botella</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -7078,7 +7078,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E289" t="b">
         <v>1</v>
@@ -7087,7 +7087,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ade</t>
+          <t>ffq_ags</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E290" t="b">
         <v>1</v>
@@ -7110,7 +7110,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ffq_hc</t>
+          <t>pcr</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -7133,7 +7133,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ffq_g_maria</t>
+          <t>bilirrubina_total</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E292" t="b">
         <v>1</v>
@@ -7156,7 +7156,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>apolipoproteina_b</t>
+          <t>ffq_helados</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -7179,7 +7179,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>tiempo_tromboplastina_rati</t>
+          <t>ffq_uva</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -7202,7 +7202,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>pgh_por_eficiencia</t>
+          <t>col_total</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -7225,7 +7225,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ffq_protveg</t>
+          <t>ffq_aguacate</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -7248,7 +7248,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ffq_croissant</t>
+          <t>ffq_jverde</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E297" t="b">
         <v>1</v>
@@ -7271,7 +7271,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>delta_licopeno</t>
+          <t>wcst_te_t</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -7294,7 +7294,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>magnesio</t>
+          <t>ffq_whisky</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -7317,7 +7317,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ffq_z_frutasnat</t>
+          <t>ansiedad</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7331,7 +7331,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E300" t="b">
         <v>1</v>
@@ -7340,7 +7340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ffq_natilla</t>
+          <t>ffq_pollonopiel</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7363,7 +7363,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>creatinina_orina</t>
+          <t>ffq_paninteg</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7386,7 +7386,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>fibrinogeno</t>
+          <t>ffq_vit_b9</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E303" t="b">
         <v>1</v>
@@ -7409,7 +7409,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ffq_tomatefri</t>
+          <t>ffq_z_natural</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7432,7 +7432,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ffq_naranjas</t>
+          <t>ffq_quesito</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E305" t="b">
         <v>1</v>
@@ -7455,7 +7455,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ggt</t>
+          <t>ffq_j_cocido</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7478,7 +7478,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>musculo</t>
+          <t>betacaroteno</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7501,7 +7501,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ffq_p_fritascom</t>
+          <t>chcm</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7524,7 +7524,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>isi_total</t>
+          <t>wcst_te_pd</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7547,7 +7547,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>amilasa</t>
+          <t>ffq_prot</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7570,7 +7570,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>capacidad_ligar_hierro</t>
+          <t>zinc</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7593,7 +7593,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ffq_fibra</t>
+          <t>creatinina_orina</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E312" t="b">
         <v>1</v>
@@ -7616,7 +7616,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ffq_chocolates</t>
+          <t>ade</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7639,7 +7639,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ffq_z_botella</t>
+          <t>ffq_g_choco</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E314" t="b">
         <v>1</v>
@@ -7662,7 +7662,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ffq_ac_olivavir</t>
+          <t>ffq_grasa</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7685,7 +7685,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>hemoglobina</t>
+          <t>ffq_na</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7699,7 +7699,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E316" t="b">
         <v>1</v>
@@ -7708,7 +7708,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ffq_vit_b12</t>
+          <t>inr</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7731,7 +7731,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>wcst_ife_t</t>
+          <t>ffq_vit_b12</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7754,7 +7754,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>delta_fn_score</t>
+          <t>Palabras_moca</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7777,7 +7777,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>tom_sofrito</t>
+          <t>ffq_quinoa</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7791,7 +7791,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E320" t="b">
         <v>1</v>
@@ -7800,7 +7800,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ffq_energiatot</t>
+          <t>ffq_surimi</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7823,7 +7823,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>g_dia_tom</t>
+          <t>luteina</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7846,7 +7846,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ffq_panblanco</t>
+          <t>ffq_yogur_ent</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E323" t="b">
         <v>1</v>
@@ -7869,7 +7869,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ffq_pollonopiel</t>
+          <t>ffq_vit_b3</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7892,7 +7892,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>d2_con1_pd</t>
+          <t>ffq_calabacin</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7915,7 +7915,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>neutrofilos</t>
+          <t>cv_p18</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E326" t="b">
         <v>1</v>
@@ -7938,7 +7938,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>tiempo_protrombina</t>
+          <t>edad</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E327" t="b">
         <v>1</v>
@@ -7961,7 +7961,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>hemoglobina_glicada</t>
+          <t>ffq_melocoton</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7975,7 +7975,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E328" t="b">
         <v>1</v>
@@ -7984,7 +7984,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>bun</t>
+          <t>lipasa</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -8007,7 +8007,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>alat</t>
+          <t>ffq_almendras</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E330" t="b">
         <v>1</v>
@@ -8030,7 +8030,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>filtrado_glomerular</t>
+          <t>horas_cama</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -8044,7 +8044,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E331" t="b">
         <v>1</v>
@@ -8053,7 +8053,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ffq_c_cordero</t>
+          <t>ffq_pina</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -8067,7 +8067,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E332" t="b">
         <v>1</v>
@@ -8076,7 +8076,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ffq_v_tintojov</t>
+          <t>ffq_fresa</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -8099,7 +8099,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ffq_v_blanco</t>
+          <t>ffq_muesli</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -8122,7 +8122,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>licopeno</t>
+          <t>af_mv_procentaje</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -8145,7 +8145,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ffq_nuez</t>
+          <t>ipaq_min_cam</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -8168,7 +8168,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>cadera_media</t>
+          <t>ind_frag_sueño</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -8191,7 +8191,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ffq_garbanzos</t>
+          <t>ffq_mg</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -8214,7 +8214,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>leucocitos</t>
+          <t>capacidad_ligar_hierro</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -8237,7 +8237,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>pcr</t>
+          <t>tom_cocido</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E340" t="b">
         <v>1</v>
@@ -8260,7 +8260,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ffq_vit_b2</t>
+          <t>ac_folico_serico</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -8283,7 +8283,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>wcst_cc_t</t>
+          <t>ad_dietamed</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -8306,7 +8306,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ldh</t>
+          <t>plaquetas</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -8329,7 +8329,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>cv_social_relationships</t>
+          <t>ffq_g_integral</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -8343,7 +8343,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E344" t="b">
         <v>1</v>
@@ -8352,7 +8352,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ffq_mieles</t>
+          <t>amilasa</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -8375,7 +8375,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ffq_cerezas</t>
+          <t>waso</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8398,7 +8398,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>pgh_h_dormir</t>
+          <t>hads_score</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E347" t="b">
         <v>1</v>
@@ -8421,7 +8421,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ffq_bebidas_vegetales</t>
+          <t>ffq_c_cerdonomagra</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8444,7 +8444,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ffq_ac_mezcla</t>
+          <t>betacriptoxantina</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -8467,7 +8467,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ffq_bebida_energetica</t>
+          <t>eosinofilos</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8481,7 +8481,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E350" t="b">
         <v>1</v>
@@ -8490,7 +8490,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>linfocitos</t>
+          <t>ffq_croquetas</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -8513,7 +8513,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>tom_crudo</t>
+          <t>ffq_fibra</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -8536,7 +8536,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>vit_d3</t>
+          <t>albumina_porcentaje</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -8550,7 +8550,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E353" t="b">
         <v>1</v>
@@ -8559,7 +8559,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ffq_turrones</t>
+          <t>basofilos</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -8573,7 +8573,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E354" t="b">
         <v>1</v>
@@ -8582,7 +8582,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ffq_yogur_des</t>
+          <t>indice_albumina_creatinina</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="E355" t="b">
         <v>1</v>
@@ -8605,7 +8605,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ffq_vit_b9</t>
+          <t>tom_sofrito</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -8619,7 +8619,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E356" t="b">
         <v>1</v>
@@ -8628,7 +8628,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ffq_cebollas</t>
+          <t>d2_e_pd</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -8651,7 +8651,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>vol_plaquetario</t>
+          <t>tom_dias</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -8674,7 +8674,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>PAS_izq</t>
+          <t>ffq_mayones</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -8688,7 +8688,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E359" t="b">
         <v>1</v>
@@ -8697,7 +8697,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>betacaroteno</t>
+          <t>ffq_c_cordero</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -8720,7 +8720,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>grasa</t>
+          <t>neutrofilos</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -8734,7 +8734,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E361" t="b">
         <v>1</v>
@@ -8743,7 +8743,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ffq_polisacaridos</t>
+          <t>d2_con4_pd</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -8766,7 +8766,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>vit_b12</t>
+          <t>ffq_quesos</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -8789,7 +8789,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ffq_margarinas</t>
+          <t>hematocrito</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="E364" t="b">
         <v>1</v>
@@ -8812,7 +8812,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>tsh</t>
+          <t>ffq_colesterol</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -8826,7 +8826,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E365" t="b">
         <v>1</v>
@@ -8835,7 +8835,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ind_frag</t>
+          <t>ffq_sopasobre</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -8849,7 +8849,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E366" t="b">
         <v>1</v>
@@ -8858,7 +8858,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>cv_social_relationships_100</t>
+          <t>ffq_k</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8881,7 +8881,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ffq_tortitas</t>
+          <t>ffq_refrescos</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -8895,7 +8895,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E368" t="b">
         <v>1</v>
@@ -8904,7 +8904,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ffq_c_cerdonomagra</t>
+          <t>tom_crudo</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E369" t="b">
         <v>1</v>
@@ -8927,7 +8927,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>tiempo_protrombina_rati</t>
+          <t>cv_social_relationships_100</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -8950,7 +8950,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>chcm</t>
+          <t>ffq_azucares</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -8973,7 +8973,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ffq_infusiones</t>
+          <t>ffq_chocolates</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -8996,7 +8996,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>pgh_5a</t>
+          <t>pgh_compañia</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -9019,7 +9019,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>cv_p17</t>
+          <t>cv_p14</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -9042,7 +9042,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>cv_p12</t>
+          <t>ipaq_dias_mod</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -9056,7 +9056,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E375" t="b">
         <v>1</v>
@@ -9065,7 +9065,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>cv_p7</t>
+          <t>ipaq_nivel_af</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -9079,7 +9079,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E376" t="b">
         <v>1</v>
@@ -9088,7 +9088,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>tom_momento</t>
+          <t>af_trabajo</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E377" t="b">
         <v>1</v>
@@ -9111,7 +9111,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>bristol</t>
+          <t>puntaje_moca</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -9125,7 +9125,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E378" t="b">
         <v>1</v>
@@ -9134,7 +9134,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>cafe</t>
+          <t>cv_p6</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -9148,7 +9148,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E379" t="b">
         <v>1</v>
@@ -9157,7 +9157,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>cv_p11</t>
+          <t>pgh_latencia</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E380" t="b">
         <v>1</v>
@@ -9180,7 +9180,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ipaq_dias_cam</t>
+          <t>pgh_h_levantarse</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -9194,7 +9194,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E381" t="b">
         <v>1</v>
@@ -9203,7 +9203,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>fn_cara</t>
+          <t>cv_percepcion_calidad_vida_100</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -9226,7 +9226,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>pgh_compañia_b</t>
+          <t>cv_p10</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -9240,7 +9240,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E383" t="b">
         <v>1</v>
@@ -9249,7 +9249,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>af_libre</t>
+          <t>fn_cara</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -9272,7 +9272,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>tom_micro</t>
+          <t>pgh_5c</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -9286,7 +9286,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E385" t="b">
         <v>1</v>
@@ -9295,7 +9295,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>pgh_somnolencias</t>
+          <t>cv_p25</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -9309,7 +9309,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E386" t="b">
         <v>1</v>
@@ -9318,7 +9318,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>nivel_e</t>
+          <t>pgh_5e</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E387" t="b">
         <v>1</v>
@@ -9341,7 +9341,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>tom_aceite</t>
+          <t>tom_otro</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -9355,7 +9355,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E388" t="b">
         <v>1</v>
@@ -9364,7 +9364,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>edo_civil</t>
+          <t>covid</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -9378,7 +9378,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E389" t="b">
         <v>1</v>
@@ -9387,7 +9387,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>tom_otro</t>
+          <t>cv_p15</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -9401,7 +9401,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E390" t="b">
         <v>1</v>
@@ -9410,7 +9410,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>puntaje_moca</t>
+          <t>tom_aceite</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E391" t="b">
         <v>1</v>
@@ -9433,7 +9433,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>cv_p2</t>
+          <t>sodio</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E392" t="b">
         <v>1</v>
@@ -9456,7 +9456,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>pgh_tener_animos</t>
+          <t>memoria_moca</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -9470,7 +9470,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E393" t="b">
         <v>1</v>
@@ -9479,7 +9479,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>pgh_5d</t>
+          <t>puntaje_audit</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -9493,7 +9493,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E394" t="b">
         <v>1</v>
@@ -9502,7 +9502,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>pgh_5i</t>
+          <t>pgh_calidad_sueño</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -9525,7 +9525,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>cv_p6</t>
+          <t>isi_1c</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -9548,7 +9548,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>cv_p16</t>
+          <t>isi_1a</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -9571,7 +9571,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>wcst_cc_pd</t>
+          <t>tabaco</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -9594,7 +9594,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>pgh_5b</t>
+          <t>tom_momento</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E399" t="b">
         <v>1</v>
@@ -9617,7 +9617,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>cv_p23</t>
+          <t>total_meds</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E400" t="b">
         <v>1</v>
@@ -9640,7 +9640,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud_100</t>
+          <t>cv_p26</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -9663,7 +9663,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>isi_1b</t>
+          <t>cv_p24</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -9686,7 +9686,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>cv_p15</t>
+          <t>pgh_compañia_b</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E403" t="b">
         <v>1</v>
@@ -9709,7 +9709,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>covid</t>
+          <t>cv_percepcion_salud</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -9723,7 +9723,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E404" t="b">
         <v>1</v>
@@ -9732,7 +9732,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>cv_p8</t>
+          <t>cv_percepcion_calidad_vida</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -9755,7 +9755,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>isi_3</t>
+          <t>isi_5</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -9778,7 +9778,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>tipo_alcohol</t>
+          <t>tipo_dieta</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -9801,7 +9801,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>pgh_compañia</t>
+          <t>wcst_cc_pd</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -9824,7 +9824,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>isi_4</t>
+          <t>pgh_somnolencias</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E409" t="b">
         <v>1</v>
@@ -9847,7 +9847,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>cv_p24</t>
+          <t>cv_p1</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -9870,7 +9870,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>pgh_eficiencia</t>
+          <t>nivel_e</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E411" t="b">
         <v>1</v>
@@ -9893,7 +9893,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ipaq_dias_int</t>
+          <t>pgh_med_dormir</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -9907,7 +9907,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E412" t="b">
         <v>1</v>
@@ -9916,7 +9916,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>tom_fa</t>
+          <t>wcst_años_educacion</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -9930,7 +9930,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E413" t="b">
         <v>1</v>
@@ -9939,7 +9939,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>pgh_calidad_sueño</t>
+          <t>cv_percepcion_salud_100</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -9953,7 +9953,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E414" t="b">
         <v>1</v>
@@ -9962,7 +9962,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>cv_p10</t>
+          <t>bristol</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -9976,7 +9976,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E415" t="b">
         <v>1</v>
@@ -9985,7 +9985,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>pgh_h_acostarse</t>
+          <t>cv_p23</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E416" t="b">
         <v>1</v>
@@ -10008,7 +10008,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>isi_1c</t>
+          <t>isi_4</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -10031,7 +10031,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>wcst_años_educacion</t>
+          <t>isi_3</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -10045,7 +10045,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E418" t="b">
         <v>1</v>
@@ -10054,7 +10054,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>pgh_5c</t>
+          <t>isi_2</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E419" t="b">
         <v>1</v>
@@ -10077,7 +10077,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>isi_5</t>
+          <t>wcst_ep_pd</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -10091,7 +10091,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E420" t="b">
         <v>1</v>
@@ -10100,7 +10100,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>cv_p5</t>
+          <t>pgh_5f</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -10114,7 +10114,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E421" t="b">
         <v>1</v>
@@ -10123,7 +10123,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>pgh_compañia_a</t>
+          <t>pgh_h_acostarse</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -10137,7 +10137,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E422" t="b">
         <v>1</v>
@@ -10146,7 +10146,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>pgh_5h</t>
+          <t>cv_p2</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -10160,7 +10160,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E423" t="b">
         <v>1</v>
@@ -10169,7 +10169,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>pgh_latencia</t>
+          <t>cv_p20</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -10183,7 +10183,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E424" t="b">
         <v>1</v>
@@ -10192,7 +10192,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>pgh_5j</t>
+          <t>personas_hogar</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E425" t="b">
         <v>1</v>
@@ -10215,7 +10215,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>isi_1a</t>
+          <t>frec_alcohol</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -10229,7 +10229,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E426" t="b">
         <v>1</v>
@@ -10238,7 +10238,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>tom_horno</t>
+          <t>siesta</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E427" t="b">
         <v>1</v>
@@ -10261,7 +10261,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>fn_nombre</t>
+          <t>cafe</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -10275,7 +10275,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E428" t="b">
         <v>1</v>
@@ -10284,7 +10284,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>wcst_ep_pd</t>
+          <t>cv_p19</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -10298,7 +10298,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E429" t="b">
         <v>1</v>
@@ -10307,7 +10307,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>tabaco</t>
+          <t>cv_p8</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E430" t="b">
         <v>1</v>
@@ -10330,7 +10330,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>cv_p21</t>
+          <t>cv_p12</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -10353,7 +10353,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>frec_alcohol</t>
+          <t>pgh_5h</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -10376,7 +10376,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>pgh_duracion_sueño</t>
+          <t>af_libre</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E433" t="b">
         <v>1</v>
@@ -10399,7 +10399,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>cv_p26</t>
+          <t>cv_p21</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -10422,7 +10422,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>pgh_5e</t>
+          <t>pgh_5b</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -10445,7 +10445,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>frec_alcohol_audit</t>
+          <t>cv_p7</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E436" t="b">
         <v>1</v>
@@ -10468,7 +10468,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>cv_p1</t>
+          <t>ipaq_dias_int</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E437" t="b">
         <v>1</v>
@@ -10491,7 +10491,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>pgh_disfuncion_dia</t>
+          <t>pgh_compañia_a</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -10514,7 +10514,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>pgh_5g</t>
+          <t>pgh_5d</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -10537,7 +10537,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>cv_percepcion_salud</t>
+          <t>pgh_compañia_c</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -10551,7 +10551,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E440" t="b">
         <v>1</v>
@@ -10560,7 +10560,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>siesta</t>
+          <t>pgh_5g</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -10583,7 +10583,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>pgh_med_dormir</t>
+          <t>pgh_perturbaciones</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E442" t="b">
         <v>1</v>
@@ -10606,7 +10606,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>pgh_compañia_d</t>
+          <t>fn_nombre</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -10620,7 +10620,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E443" t="b">
         <v>1</v>
@@ -10629,7 +10629,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>cv_p20</t>
+          <t>pgh_disfuncion_dia</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -10643,7 +10643,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E444" t="b">
         <v>1</v>
@@ -10652,7 +10652,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>isi_2</t>
+          <t>ipaq_dias_cam</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -10666,7 +10666,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E445" t="b">
         <v>1</v>
@@ -10675,7 +10675,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>sodio</t>
+          <t>cv_p5</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -10689,7 +10689,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E446" t="b">
         <v>1</v>
@@ -10698,7 +10698,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>personas_hogar</t>
+          <t>pgh_5i</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E447" t="b">
         <v>1</v>
@@ -10721,7 +10721,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>cv_p14</t>
+          <t>tom_fa</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -10735,7 +10735,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E448" t="b">
         <v>1</v>
@@ -10744,7 +10744,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>cv_p19</t>
+          <t>pgh_compañia_d</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -10767,7 +10767,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>tipo_dieta</t>
+          <t>cv_p11</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -10781,7 +10781,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E450" t="b">
         <v>1</v>
@@ -10790,7 +10790,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>pgh_h_levantarse</t>
+          <t>cv_p17</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E451" t="b">
         <v>1</v>
@@ -10813,7 +10813,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida</t>
+          <t>pgh_eficiencia</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -10827,7 +10827,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E452" t="b">
         <v>1</v>
@@ -10836,7 +10836,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>pgh_5f</t>
+          <t>pgh_tener_animos</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -10859,7 +10859,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>cv_p13</t>
+          <t>frec_alcohol_audit</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -10873,7 +10873,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E454" t="b">
         <v>1</v>
@@ -10882,7 +10882,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ipaq_dias_mod</t>
+          <t>cv_p3</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E455" t="b">
         <v>1</v>
@@ -10905,7 +10905,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>puntaje_audit</t>
+          <t>cv_p16</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -10919,7 +10919,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E456" t="b">
         <v>1</v>
@@ -10928,7 +10928,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>cv_p3</t>
+          <t>isi_1b</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -10951,7 +10951,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>total_meds</t>
+          <t>pgh_duracion_sueño</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -10965,7 +10965,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E458" t="b">
         <v>1</v>
@@ -10974,7 +10974,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>pgh_perturbaciones</t>
+          <t>tipo_alcohol</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -10988,7 +10988,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E459" t="b">
         <v>1</v>
@@ -10997,7 +10997,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>af_trabajo</t>
+          <t>tom_horno</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -11011,7 +11011,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E460" t="b">
         <v>1</v>
@@ -11020,7 +11020,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>pgh_compañia_c</t>
+          <t>tom_micro</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -11034,7 +11034,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E461" t="b">
         <v>1</v>
@@ -11043,7 +11043,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ipaq_nivel_af</t>
+          <t>cv_p13</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -11057,7 +11057,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E462" t="b">
         <v>1</v>
@@ -11066,7 +11066,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>cv_p25</t>
+          <t>pgh_5j</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -11080,7 +11080,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E463" t="b">
         <v>1</v>
@@ -11089,7 +11089,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>cv_percepcion_calidad_vida_100</t>
+          <t>pgh_5a</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -11103,7 +11103,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E464" t="b">
         <v>1</v>
@@ -11112,7 +11112,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>memoria_moca</t>
+          <t>edo_civil</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -11126,7 +11126,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E465" t="b">
         <v>1</v>
@@ -11135,7 +11135,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>fibra_mucoide_sed_(1-3)</t>
+          <t>hematies_sed_(10-20)</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -11149,7 +11149,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0.06547619047619047</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E466" t="b">
         <v>1</v>
@@ -11158,7 +11158,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>cetonas_orina</t>
+          <t>leucocitos_sed_(3-5)</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -11172,7 +11172,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>0.02976190476190477</v>
       </c>
       <c r="E467" t="b">
         <v>0</v>
@@ -11181,7 +11181,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>hematies_sed_(25-30)</t>
+          <t>leucocitos_orina</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -11195,7 +11195,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E468" t="b">
         <v>1</v>
@@ -11204,7 +11204,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>oxalato_calcico_sed_(20-35)</t>
+          <t>fibra_mucoide_sed_Negativo</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -11218,16 +11218,16 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>0.005952380952380931</v>
+        <v>0.05952380952380953</v>
       </c>
       <c r="E469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>precipitados_urat_sed_Moderado</t>
+          <t>hematies_sed_Moderado</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0.005952380952380931</v>
+        <v>0.02976190476190477</v>
       </c>
       <c r="E470" t="b">
         <v>0</v>
@@ -11250,7 +11250,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>num_depo_Dos + Por Día</t>
+          <t>sexo</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -11264,7 +11264,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>0.2916666666666666</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E471" t="b">
         <v>1</v>
@@ -11273,7 +11273,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>trabajo</t>
+          <t>ffq_v_rosado</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -11287,16 +11287,16 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>0.04761904761904767</v>
+        <v>0.1309523809523809</v>
       </c>
       <c r="E472" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>cat_pgh_total</t>
+          <t>leucocitos_sed_(25-30)</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -11310,16 +11310,16 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>0.4226190476190477</v>
+        <v>0.02380952380952384</v>
       </c>
       <c r="E473" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>fam_cardiacos</t>
+          <t>otras_med</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -11333,7 +11333,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="E474" t="b">
         <v>1</v>
@@ -11342,7 +11342,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>leucocitos_sed_(1-5)</t>
+          <t>ffq_visceras</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -11356,7 +11356,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>0.005952380952380931</v>
+        <v>0.02976190476190477</v>
       </c>
       <c r="E475" t="b">
         <v>0</v>
@@ -11365,7 +11365,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>fibra_mucoide_sed_Moderado</t>
+          <t>celulas_epiteliales_sed_Escaso</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -11379,7 +11379,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0.005952380952380931</v>
+        <v>0.02976190476190477</v>
       </c>
       <c r="E476" t="b">
         <v>0</v>
@@ -11388,7 +11388,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>observaciones_Si</t>
+          <t>fam_diabetes</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>0.05952380952380953</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="E477" t="b">
         <v>1</v>
@@ -11411,7 +11411,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>nitritos_orina</t>
+          <t>cat_pgh_total</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -11425,16 +11425,16 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>0.01190476190476186</v>
+        <v>0.4226190476190477</v>
       </c>
       <c r="E478" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>num_depo_Una Por Día</t>
+          <t>prebioticos</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -11448,7 +11448,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="E479" t="b">
         <v>1</v>
@@ -11480,7 +11480,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>vitaminas</t>
+          <t>fibra_mucoide_sed_Ausente</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -11494,16 +11494,16 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="E481" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>hematies_sed_Moderado</t>
+          <t>num_depo_Dos + Por Día</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>0.01190476190476186</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="E482" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>celulas_epiteliales_sed_(5-10)</t>
+          <t>ejercicio</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -11540,16 +11540,16 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>0.005952380952380931</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="E483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>suplementos</t>
+          <t>menst_tipo_MEF</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -11563,7 +11563,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="E484" t="b">
         <v>1</v>
@@ -11572,7 +11572,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>hemoglobina_orina</t>
+          <t>oxalato_calcico_sed_Escaso</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -11586,16 +11586,16 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0.07738095238095233</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E485" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>fam_enfgastro</t>
+          <t>ffq_mantecacer</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -11609,7 +11609,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="E486" t="b">
         <v>1</v>
@@ -11618,7 +11618,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>descansa</t>
+          <t>cambios_sueño</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -11632,7 +11632,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="E487" t="b">
         <v>1</v>
@@ -11641,7 +11641,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>int_quirugica</t>
+          <t>num_depo_Una Por Día</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -11655,7 +11655,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="E488" t="b">
         <v>1</v>
@@ -11664,7 +11664,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>fibra_mucoide_sed_(20-35)</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -11678,16 +11678,16 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>0.04166666666666663</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>tom_completo</t>
+          <t>antibioticos</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -11701,7 +11701,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0.1190476190476191</v>
+        <v>0.0535714285714286</v>
       </c>
       <c r="E490" t="b">
         <v>1</v>
@@ -11710,7 +11710,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ffq_v_rosado</t>
+          <t>fam_hta</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -11724,7 +11724,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>0.1309523809523809</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E491" t="b">
         <v>1</v>
@@ -11733,7 +11733,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>bacterias_sed_(20-35)</t>
+          <t>alergias_alim</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -11747,7 +11747,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="E492" t="b">
         <v>1</v>
@@ -11756,7 +11756,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>bilirrubina_orina</t>
+          <t>leucocitos_sed_(1-3)</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -11770,7 +11770,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E493" t="b">
         <v>0</v>
@@ -11779,7 +11779,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>menst_tipo_MPM</t>
+          <t>trabajo</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -11793,16 +11793,16 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.04761904761904767</v>
       </c>
       <c r="E494" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>leucocitos_sed_Moderado</t>
+          <t>leucocitos_sed_Negativo</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -11816,7 +11816,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.2023809523809523</v>
       </c>
       <c r="E495" t="b">
         <v>1</v>
@@ -11825,7 +11825,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>fam_acvascular</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -11839,7 +11839,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E496" t="b">
         <v>1</v>
@@ -11848,7 +11848,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ffq_visceras</t>
+          <t>bacterias_sed_Escaso</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -11862,16 +11862,16 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>0.02976190476190477</v>
+        <v>0.07738095238095233</v>
       </c>
       <c r="E497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>antibioticos</t>
+          <t>hematies_sed_Negativo</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -11885,7 +11885,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0.0535714285714286</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="E498" t="b">
         <v>1</v>
@@ -11894,7 +11894,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>otras_med</t>
+          <t>hematies_sed_(1-3)</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -11908,16 +11908,16 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="E499" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>leucocitos_sed_(3-5)</t>
+          <t>leucocitos_sed_(5-10)</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -11931,7 +11931,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>0.005952380952380931</v>
+        <v>0.04166666666666663</v>
       </c>
       <c r="E500" t="b">
         <v>0</v>
@@ -11940,7 +11940,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>bacterias_sed_Negativo</t>
+          <t>celulas_epiteliales_sed_Abundante</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -11954,7 +11954,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0.02976190476190477</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E501" t="b">
         <v>0</v>
@@ -11963,7 +11963,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>bacterias_sed_Moderado</t>
+          <t>leucocitos_sed_Moderado</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -11977,16 +11977,16 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>0.02976190476190477</v>
+        <v>0.07738095238095233</v>
       </c>
       <c r="E502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>celulas_epiteliales_sed_(20-35)</t>
+          <t>cetonas_orina</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -12000,16 +12000,16 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>0.08333333333333337</v>
+        <v>0</v>
       </c>
       <c r="E503" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>fam_colesterol</t>
+          <t>oxalato_calcico_sed_Negativo</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -12023,16 +12023,16 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0.4523809523809523</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E504" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>hematies_sed_Negativo</t>
+          <t>tranquilizantes</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.04761904761904767</v>
       </c>
       <c r="E505" t="b">
         <v>0</v>
@@ -12055,7 +12055,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>leucocitos_sed_Abundante</t>
+          <t>int_quirugica</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -12069,16 +12069,16 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>0.01190476190476186</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>menst_tipo_MEF</t>
+          <t>hematies_sed_(1-5)</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -12092,16 +12092,16 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>0.4880952380952381</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E507" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>oxalato_calcico_sed_(35-60)</t>
+          <t>ffq_almibar</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -12124,7 +12124,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>urobilinogeno_orina</t>
+          <t>fam_colesterol</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -12138,7 +12138,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0.2738095238095238</v>
+        <v>0.4523809523809523</v>
       </c>
       <c r="E509" t="b">
         <v>1</v>
@@ -12147,7 +12147,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>hematies_sed_(1-5)</t>
+          <t>descansa</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -12161,16 +12161,16 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E510" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>fam_hta</t>
+          <t>suplementos</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -12184,7 +12184,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="E511" t="b">
         <v>1</v>
@@ -12193,7 +12193,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>hematies_sed_Ausente</t>
+          <t>albumina_orina</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -12207,7 +12207,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>0.005952380952380931</v>
+        <v>0</v>
       </c>
       <c r="E512" t="b">
         <v>0</v>
@@ -12216,7 +12216,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>fam_obesidad</t>
+          <t>leucocitos_sed_(100-150)</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -12230,16 +12230,16 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.005952380952380931</v>
       </c>
       <c r="E513" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ffq_almibar</t>
+          <t>menst_tipo_MPM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -12253,16 +12253,16 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>0.01190476190476186</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="E514" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>hematies_sed_(10-20)</t>
+          <t>fam_cardiacos</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -12276,16 +12276,16 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>0.01190476190476186</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E515" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>leucocitos_sed_Negativo</t>
+          <t>enf</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -12299,7 +12299,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>0.07738095238095233</v>
+        <v>0.2321428571428571</v>
       </c>
       <c r="E516" t="b">
         <v>1</v>
@@ -12308,7 +12308,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>leucocitos_orina</t>
+          <t>hematies_sed_(35-60)</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -12322,10 +12322,10 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="E517" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -12354,7 +12354,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>adherencia_lic</t>
+          <t>aspirina</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -12368,16 +12368,16 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.04761904761904767</v>
       </c>
       <c r="E519" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>fam_acvascular</t>
+          <t>fam_obesidad</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -12391,7 +12391,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="E520" t="b">
         <v>1</v>
@@ -12400,7 +12400,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>hematies_sed_Escaso</t>
+          <t>hemoglobina_orina</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -12414,16 +12414,16 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>0.005952380952380931</v>
+        <v>0.07738095238095233</v>
       </c>
       <c r="E521" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>enf</t>
+          <t>ffq_ac_maiz</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -12437,16 +12437,16 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>0.2321428571428571</v>
+        <v>0</v>
       </c>
       <c r="E522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>albumina_orina</t>
+          <t>bilirrubina_orina</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -12469,7 +12469,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>oxalato_calcico_sed_(5-10)</t>
+          <t>urobilinogeno_orina</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -12483,16 +12483,16 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>0.005952380952380931</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="E524" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>prebioticos</t>
+          <t>fam_enfgastro</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -12506,7 +12506,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="E525" t="b">
         <v>1</v>
@@ -12515,7 +12515,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ffq_ac_maiz</t>
+          <t>adherencia_lic</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -12529,16 +12529,16 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E526" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>celulas_epiteliales_sed_(100-150)</t>
+          <t>bacterias_sed_Negativo</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -12552,16 +12552,16 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>0.01190476190476186</v>
+        <v>0.1488095238095238</v>
       </c>
       <c r="E527" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>celulas_epiteliales_sed_Negativo</t>
+          <t>hematies_sed_(25-30)</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -12575,7 +12575,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>0.02380952380952384</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E528" t="b">
         <v>0</v>
@@ -12584,7 +12584,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>cambios_apetito</t>
+          <t>leucocitos_sed_(35-60)</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -12598,16 +12598,16 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>sexo</t>
+          <t>vitaminas</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="E530" t="b">
         <v>1</v>
@@ -12630,7 +12630,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ffq_mantecacer</t>
+          <t>nitritos_orina</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -12644,16 +12644,16 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>0.0535714285714286</v>
+        <v>0.01190476190476186</v>
       </c>
       <c r="E531" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>tranquilizantes</t>
+          <t>cambios_apetito</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -12667,16 +12667,16 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>0.04761904761904767</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>cambios_sueño</t>
+          <t>celulas_epiteliales_sed_Negativo</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -12690,7 +12690,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="E533" t="b">
         <v>1</v>
@@ -12699,7 +12699,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ejercicio</t>
+          <t>observaciones_Si</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -12713,7 +12713,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.05952380952380953</v>
       </c>
       <c r="E534" t="b">
         <v>1</v>
@@ -12722,7 +12722,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>alergias_alim</t>
+          <t>glucosa_orina</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -12736,16 +12736,16 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>0.2380952380952381</v>
+        <v>0</v>
       </c>
       <c r="E535" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>hematies_sed_Abundante</t>
+          <t>tom_completo</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -12759,16 +12759,16 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.1190476190476191</v>
       </c>
       <c r="E536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>glucosa_orina</t>
+          <t>menst_flag</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -12782,147 +12782,9 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>0</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="E537" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>bacterias_sed_(5-10)</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>Binaria</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>minority_freq</t>
-        </is>
-      </c>
-      <c r="D538" t="n">
-        <v>0.04761904761904767</v>
-      </c>
-      <c r="E538" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>menst_flag</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>Binaria</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>minority_freq</t>
-        </is>
-      </c>
-      <c r="D539" t="n">
-        <v>0.4880952380952381</v>
-      </c>
-      <c r="E539" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>oxalato_calcico_sed_Moderado</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>Binaria</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>minority_freq</t>
-        </is>
-      </c>
-      <c r="D540" t="n">
-        <v>0.005952380952380931</v>
-      </c>
-      <c r="E540" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>leucocitos_sed_Escaso</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>Binaria</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>minority_freq</t>
-        </is>
-      </c>
-      <c r="D541" t="n">
-        <v>0.01190476190476186</v>
-      </c>
-      <c r="E541" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>aspirina</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>Binaria</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>minority_freq</t>
-        </is>
-      </c>
-      <c r="D542" t="n">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="E542" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>fam_diabetes</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Binaria</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>minority_freq</t>
-        </is>
-      </c>
-      <c r="D543" t="n">
-        <v>0.4523809523809523</v>
-      </c>
-      <c r="E543" t="b">
         <v>1</v>
       </c>
     </row>
